--- a/Strategy_test.xlsx
+++ b/Strategy_test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tolzv\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5577159-5A16-4D13-B13E-90D9E6C175B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0972A78B-E7A6-4192-83BB-FF377CE02745}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="897" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="897" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Тест-план Морской бой" sheetId="10" r:id="rId1"/>
@@ -1582,16 +1582,6 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1692,20 +1682,8 @@
     <xf numFmtId="0" fontId="15" fillId="7" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="7" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="24" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1714,15 +1692,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="42" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="41" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="7" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1734,8 +1703,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="42" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="41" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="10" fontId="19" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="22" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1833,20 +1800,8 @@
     <xf numFmtId="0" fontId="24" fillId="7" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="30" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="24" fillId="7" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="7" borderId="27" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="7" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="24" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1860,29 +1815,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="2" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="42" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="41" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="19" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="24" fillId="7" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="19" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="7" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="42" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="19" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="42" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="41" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="19" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1894,7 +1834,6 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="22" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1904,8 +1843,69 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="27" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="30" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="41" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="42" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="41" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="42" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="7" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="29" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="7" borderId="27" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="30" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="19" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="41" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="42" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="19" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="41" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="42" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="19" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2501,7 +2501,7 @@
       <c r="J10" s="44" t="s">
         <v>109</v>
       </c>
-      <c r="K10" s="70" t="s">
+      <c r="K10" s="176" t="s">
         <v>18</v>
       </c>
       <c r="L10" s="13"/>
@@ -2552,7 +2552,7 @@
       <c r="J11" s="44" t="s">
         <v>110</v>
       </c>
-      <c r="K11" s="71"/>
+      <c r="K11" s="177"/>
       <c r="L11" s="13"/>
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
@@ -2601,7 +2601,7 @@
       <c r="J12" s="44" t="s">
         <v>111</v>
       </c>
-      <c r="K12" s="69"/>
+      <c r="K12" s="178"/>
       <c r="L12" s="13"/>
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
@@ -35243,11 +35243,11 @@
       </c>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
-      <c r="I1" s="72" t="s">
+      <c r="I1" s="179" t="s">
         <v>24</v>
       </c>
-      <c r="J1" s="73"/>
-      <c r="K1" s="74"/>
+      <c r="J1" s="180"/>
+      <c r="K1" s="181"/>
     </row>
     <row r="2" spans="1:11" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A2" s="24"/>
@@ -35596,7 +35596,7 @@
       </c>
       <c r="D23" s="30"/>
       <c r="E23" s="8"/>
-      <c r="F23" s="137">
+      <c r="F23" s="120">
         <v>2</v>
       </c>
       <c r="G23" s="2"/>
@@ -37916,281 +37916,281 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.59765625" style="75" customWidth="1"/>
-    <col min="2" max="2" width="28.3984375" style="75" customWidth="1"/>
-    <col min="3" max="3" width="31.09765625" style="75" customWidth="1"/>
-    <col min="4" max="6" width="7.59765625" style="75" customWidth="1"/>
-    <col min="7" max="7" width="24.5" style="75" customWidth="1"/>
-    <col min="8" max="8" width="10.8984375" style="75" customWidth="1"/>
-    <col min="9" max="26" width="7.59765625" style="75" customWidth="1"/>
-    <col min="27" max="16384" width="12.59765625" style="75"/>
+    <col min="1" max="1" width="7.59765625" style="69" customWidth="1"/>
+    <col min="2" max="2" width="28.3984375" style="69" customWidth="1"/>
+    <col min="3" max="3" width="31.09765625" style="69" customWidth="1"/>
+    <col min="4" max="6" width="7.59765625" style="69" customWidth="1"/>
+    <col min="7" max="7" width="24.5" style="69" customWidth="1"/>
+    <col min="8" max="8" width="10.8984375" style="69" customWidth="1"/>
+    <col min="9" max="26" width="7.59765625" style="69" customWidth="1"/>
+    <col min="27" max="16384" width="12.59765625" style="69"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A1" s="123"/>
-      <c r="B1" s="105" t="s">
+      <c r="A1" s="111"/>
+      <c r="B1" s="99" t="s">
         <v>49</v>
       </c>
-      <c r="C1" s="202" t="s">
+      <c r="C1" s="172" t="s">
         <v>156</v>
       </c>
-      <c r="D1" s="107"/>
-      <c r="E1" s="106"/>
-      <c r="F1" s="105" t="s">
+      <c r="D1" s="101"/>
+      <c r="E1" s="100"/>
+      <c r="F1" s="99" t="s">
         <v>50</v>
       </c>
-      <c r="G1" s="122">
+      <c r="G1" s="110">
         <v>1</v>
       </c>
-      <c r="H1" s="103"/>
+      <c r="H1" s="97"/>
     </row>
     <row r="2" spans="1:10" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A2" s="121"/>
-      <c r="B2" s="120" t="s">
+      <c r="A2" s="182"/>
+      <c r="B2" s="184" t="s">
         <v>51</v>
       </c>
-      <c r="C2" s="119" t="s">
+      <c r="C2" s="186" t="s">
         <v>155</v>
       </c>
-      <c r="D2" s="114"/>
-      <c r="E2" s="113"/>
-      <c r="F2" s="112" t="s">
+      <c r="D2" s="108"/>
+      <c r="E2" s="107"/>
+      <c r="F2" s="106" t="s">
         <v>52</v>
       </c>
-      <c r="G2" s="118" t="s">
+      <c r="G2" s="109" t="s">
         <v>154</v>
       </c>
-      <c r="H2" s="110"/>
+      <c r="H2" s="104"/>
     </row>
     <row r="3" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="117"/>
-      <c r="B3" s="116"/>
-      <c r="C3" s="115"/>
-      <c r="D3" s="114"/>
-      <c r="E3" s="113"/>
-      <c r="F3" s="112" t="s">
+      <c r="A3" s="183"/>
+      <c r="B3" s="185"/>
+      <c r="C3" s="187"/>
+      <c r="D3" s="108"/>
+      <c r="E3" s="107"/>
+      <c r="F3" s="106" t="s">
         <v>53</v>
       </c>
-      <c r="G3" s="111">
+      <c r="G3" s="105">
         <v>1</v>
       </c>
-      <c r="H3" s="110"/>
+      <c r="H3" s="104"/>
     </row>
     <row r="4" spans="1:10" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A4" s="109"/>
-      <c r="B4" s="105" t="s">
+      <c r="A4" s="103"/>
+      <c r="B4" s="99" t="s">
         <v>54</v>
       </c>
-      <c r="C4" s="108" t="s">
+      <c r="C4" s="102" t="s">
         <v>153</v>
       </c>
-      <c r="D4" s="107"/>
-      <c r="E4" s="106"/>
-      <c r="F4" s="105" t="s">
+      <c r="D4" s="101"/>
+      <c r="E4" s="100"/>
+      <c r="F4" s="99" t="s">
         <v>55</v>
       </c>
-      <c r="G4" s="104">
+      <c r="G4" s="98">
         <v>44326</v>
       </c>
-      <c r="H4" s="103"/>
+      <c r="H4" s="97"/>
     </row>
     <row r="5" spans="1:10" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A5" s="100"/>
-      <c r="B5" s="97"/>
-      <c r="C5" s="97"/>
-      <c r="D5" s="99"/>
-      <c r="E5" s="99"/>
-      <c r="F5" s="99"/>
-      <c r="G5" s="97"/>
-      <c r="H5" s="97"/>
+      <c r="A5" s="94"/>
+      <c r="B5" s="91"/>
+      <c r="C5" s="91"/>
+      <c r="D5" s="93"/>
+      <c r="E5" s="93"/>
+      <c r="F5" s="93"/>
+      <c r="G5" s="91"/>
+      <c r="H5" s="91"/>
     </row>
     <row r="6" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A6" s="100"/>
-      <c r="B6" s="102"/>
-      <c r="C6" s="102"/>
-      <c r="D6" s="99"/>
-      <c r="E6" s="98"/>
-      <c r="F6" s="98"/>
-      <c r="G6" s="98"/>
-      <c r="H6" s="97"/>
+      <c r="A6" s="94"/>
+      <c r="B6" s="96"/>
+      <c r="C6" s="96"/>
+      <c r="D6" s="93"/>
+      <c r="E6" s="92"/>
+      <c r="F6" s="92"/>
+      <c r="G6" s="92"/>
+      <c r="H6" s="91"/>
     </row>
     <row r="7" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A7" s="100"/>
-      <c r="B7" s="102"/>
-      <c r="C7" s="97"/>
-      <c r="D7" s="101"/>
-      <c r="E7" s="98"/>
-      <c r="F7" s="98"/>
-      <c r="G7" s="98"/>
-      <c r="H7" s="97"/>
+      <c r="A7" s="94"/>
+      <c r="B7" s="96"/>
+      <c r="C7" s="91"/>
+      <c r="D7" s="95"/>
+      <c r="E7" s="92"/>
+      <c r="F7" s="92"/>
+      <c r="G7" s="92"/>
+      <c r="H7" s="91"/>
     </row>
     <row r="8" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A8" s="100"/>
-      <c r="B8" s="102"/>
-      <c r="C8" s="102"/>
-      <c r="D8" s="101"/>
-      <c r="E8" s="98"/>
-      <c r="F8" s="98"/>
-      <c r="G8" s="98"/>
-      <c r="H8" s="97"/>
-      <c r="J8" s="75" t="s">
+      <c r="A8" s="94"/>
+      <c r="B8" s="96"/>
+      <c r="C8" s="96"/>
+      <c r="D8" s="95"/>
+      <c r="E8" s="92"/>
+      <c r="F8" s="92"/>
+      <c r="G8" s="92"/>
+      <c r="H8" s="91"/>
+      <c r="J8" s="69" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A9" s="100"/>
-      <c r="B9" s="102"/>
-      <c r="C9" s="102"/>
-      <c r="D9" s="101"/>
-      <c r="E9" s="98"/>
-      <c r="F9" s="98"/>
-      <c r="G9" s="98"/>
-      <c r="H9" s="97"/>
+      <c r="A9" s="94"/>
+      <c r="B9" s="96"/>
+      <c r="C9" s="96"/>
+      <c r="D9" s="95"/>
+      <c r="E9" s="92"/>
+      <c r="F9" s="92"/>
+      <c r="G9" s="92"/>
+      <c r="H9" s="91"/>
     </row>
     <row r="10" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A10" s="100"/>
-      <c r="B10" s="97"/>
-      <c r="C10" s="97"/>
-      <c r="D10" s="99"/>
-      <c r="E10" s="98"/>
-      <c r="G10" s="98"/>
-      <c r="H10" s="97"/>
+      <c r="A10" s="94"/>
+      <c r="B10" s="91"/>
+      <c r="C10" s="91"/>
+      <c r="D10" s="93"/>
+      <c r="E10" s="92"/>
+      <c r="G10" s="92"/>
+      <c r="H10" s="91"/>
     </row>
     <row r="11" spans="1:10" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="100"/>
-      <c r="B11" s="97"/>
-      <c r="C11" s="97"/>
-      <c r="D11" s="99"/>
-      <c r="E11" s="99"/>
-      <c r="F11" s="98"/>
-      <c r="G11" s="97"/>
-      <c r="H11" s="97"/>
+      <c r="A11" s="94"/>
+      <c r="B11" s="91"/>
+      <c r="C11" s="91"/>
+      <c r="D11" s="93"/>
+      <c r="E11" s="93"/>
+      <c r="F11" s="92"/>
+      <c r="G11" s="91"/>
+      <c r="H11" s="91"/>
     </row>
     <row r="12" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="96">
+      <c r="A12" s="90">
         <f>COUNTA(A14:A29)</f>
         <v>3</v>
       </c>
-      <c r="B12" s="95" t="s">
+      <c r="B12" s="89" t="s">
         <v>56</v>
       </c>
-      <c r="C12" s="94" t="s">
+      <c r="C12" s="88" t="s">
         <v>57</v>
       </c>
-      <c r="D12" s="93">
+      <c r="D12" s="87">
         <f>COUNTIF(D14:D29,"x")</f>
         <v>2</v>
       </c>
-      <c r="E12" s="93">
+      <c r="E12" s="87">
         <f>1</f>
         <v>1</v>
       </c>
-      <c r="F12" s="93">
+      <c r="F12" s="87">
         <f>COUNTIF(F14:F29,"x")</f>
         <v>0</v>
       </c>
-      <c r="G12" s="92" t="s">
+      <c r="G12" s="86" t="s">
         <v>58</v>
       </c>
-      <c r="H12" s="91">
+      <c r="H12" s="85">
         <f>(D12+E12+F12)/A12</f>
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="26.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="90" t="s">
+      <c r="A13" s="84" t="s">
         <v>59</v>
       </c>
-      <c r="B13" s="89" t="s">
+      <c r="B13" s="83" t="s">
         <v>60</v>
       </c>
-      <c r="C13" s="89" t="s">
+      <c r="C13" s="83" t="s">
         <v>61</v>
       </c>
-      <c r="D13" s="88" t="s">
+      <c r="D13" s="82" t="s">
         <v>62</v>
       </c>
-      <c r="E13" s="88" t="s">
+      <c r="E13" s="82" t="s">
         <v>63</v>
       </c>
-      <c r="F13" s="88" t="s">
+      <c r="F13" s="82" t="s">
         <v>64</v>
       </c>
-      <c r="G13" s="87" t="s">
+      <c r="G13" s="81" t="s">
         <v>65</v>
       </c>
-      <c r="H13" s="86" t="s">
+      <c r="H13" s="80" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A14" s="85">
+      <c r="A14" s="79">
         <v>1</v>
       </c>
-      <c r="B14" s="84" t="s">
+      <c r="B14" s="78" t="s">
         <v>152</v>
       </c>
-      <c r="C14" s="84" t="s">
+      <c r="C14" s="78" t="s">
         <v>151</v>
       </c>
-      <c r="D14" s="80" t="s">
+      <c r="D14" s="74" t="s">
         <v>67</v>
       </c>
-      <c r="E14" s="80"/>
-      <c r="F14" s="80"/>
-      <c r="G14" s="84" t="s">
+      <c r="E14" s="74"/>
+      <c r="F14" s="74"/>
+      <c r="G14" s="78" t="s">
         <v>151</v>
       </c>
-      <c r="H14" s="83"/>
+      <c r="H14" s="77"/>
     </row>
     <row r="15" spans="1:10" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A15" s="82">
+      <c r="A15" s="76">
         <f>A14 + 1</f>
         <v>2</v>
       </c>
-      <c r="B15" s="81" t="s">
+      <c r="B15" s="75" t="s">
         <v>150</v>
       </c>
-      <c r="C15" s="81" t="s">
+      <c r="C15" s="75" t="s">
         <v>149</v>
       </c>
-      <c r="D15" s="80" t="s">
+      <c r="D15" s="74" t="s">
         <v>67</v>
       </c>
-      <c r="E15" s="79"/>
-      <c r="F15" s="79"/>
-      <c r="G15" s="81" t="s">
+      <c r="E15" s="73"/>
+      <c r="F15" s="73"/>
+      <c r="G15" s="75" t="s">
         <v>149</v>
       </c>
-      <c r="H15" s="77"/>
+      <c r="H15" s="71"/>
     </row>
     <row r="16" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A16" s="82">
+      <c r="A16" s="76">
         <v>3</v>
       </c>
-      <c r="B16" s="81" t="s">
+      <c r="B16" s="75" t="s">
         <v>148</v>
       </c>
-      <c r="C16" s="81" t="s">
+      <c r="C16" s="75" t="s">
         <v>147</v>
       </c>
-      <c r="D16" s="80"/>
-      <c r="E16" s="80" t="s">
+      <c r="D16" s="74"/>
+      <c r="E16" s="74" t="s">
         <v>68</v>
       </c>
-      <c r="F16" s="79"/>
-      <c r="G16" s="78" t="s">
+      <c r="F16" s="73"/>
+      <c r="G16" s="72" t="s">
         <v>146</v>
       </c>
-      <c r="H16" s="77">
+      <c r="H16" s="71">
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="2:3" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="B17" s="76" t="s">
+      <c r="B17" s="70" t="s">
         <v>145</v>
       </c>
-      <c r="C17" s="76" t="s">
+      <c r="C17" s="70" t="s">
         <v>144</v>
       </c>
     </row>
@@ -38204,976 +38204,976 @@
     <row r="30" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="31" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="32" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="33" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="34" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="35" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="36" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="37" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="38" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="39" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="40" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="41" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="42" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="43" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="44" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="45" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="46" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="47" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="48" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="49" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="50" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="51" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="52" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="53" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="54" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="55" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="56" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="57" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="58" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="59" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="60" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="61" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="62" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="63" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="64" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="65" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="66" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="67" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="68" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="69" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="70" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="71" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="72" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="73" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="74" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="75" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="76" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="77" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="78" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="79" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="80" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="81" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="82" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="83" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="84" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="85" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="86" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="87" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="88" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="89" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="90" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="91" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="92" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="93" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="94" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="95" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="96" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="97" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="98" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="99" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="100" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="101" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="102" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="103" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="104" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="105" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="106" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="107" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="108" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="109" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="110" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="111" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="112" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="113" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="114" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="115" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="116" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="117" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="118" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="119" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="120" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="121" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="122" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="123" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="124" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="125" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="126" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="127" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="128" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="129" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="130" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="131" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="132" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="133" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="134" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="135" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="136" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="137" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="138" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="139" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="140" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="141" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="142" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="143" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="144" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="145" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="146" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="147" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="148" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="149" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="150" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="151" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="152" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="153" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="154" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="155" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="156" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="157" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="158" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="159" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="160" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="161" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="162" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="163" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="164" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="165" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="166" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="167" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="168" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="169" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="170" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="171" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="172" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="173" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="174" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="175" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="176" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="177" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="178" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="179" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="180" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="181" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="182" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="183" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="184" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="185" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="186" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="187" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="188" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="189" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="190" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="191" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="192" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="193" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="194" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="195" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="196" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="197" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="198" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="199" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="200" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="201" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="202" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="203" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="204" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="205" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="206" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="207" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="208" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="209" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="210" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="211" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="212" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="213" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="214" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="215" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="216" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="217" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="218" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="219" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="220" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="221" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="222" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="223" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="224" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="225" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="226" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="227" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="228" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="229" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="230" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="231" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="232" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="233" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="234" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="235" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="236" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="237" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="238" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="239" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="240" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="241" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="242" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="243" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="244" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="245" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="246" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="247" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="248" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="249" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="250" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="251" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="252" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="253" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="254" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="255" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="256" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="257" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="258" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="259" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="260" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="261" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="262" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="263" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="264" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="265" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="266" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="267" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="268" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="269" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="270" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="271" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="272" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="273" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="274" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="275" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="276" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="277" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="278" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="279" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="280" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="281" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="282" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="283" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="284" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="285" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="286" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="287" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="288" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="289" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="290" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="291" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="292" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="293" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="294" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="295" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="296" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="297" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="298" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="299" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="300" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="301" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="302" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="303" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="304" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="305" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="306" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="307" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="308" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="309" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="310" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="311" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="312" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="313" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="314" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="315" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="316" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="317" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="318" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="319" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="320" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="321" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="322" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="323" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="324" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="325" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="326" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="327" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="328" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="329" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="330" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="331" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="332" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="333" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="334" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="335" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="336" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="337" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="338" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="339" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="340" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="341" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="342" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="343" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="344" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="345" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="346" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="347" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="348" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="349" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="350" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="351" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="352" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="353" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="354" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="355" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="356" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="357" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="358" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="359" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="360" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="361" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="362" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="363" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="364" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="365" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="366" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="367" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="368" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="369" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="370" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="371" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="372" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="373" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="374" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="375" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="376" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="377" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="378" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="379" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="380" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="381" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="382" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="383" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="384" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="385" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="386" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="387" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="388" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="389" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="390" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="391" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="392" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="393" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="394" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="395" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="396" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="397" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="398" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="399" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="400" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="401" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="402" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="403" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="404" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="405" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="406" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="407" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="408" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="409" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="410" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="411" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="412" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="413" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="414" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="415" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="416" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="417" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="418" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="419" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="420" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="421" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="422" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="423" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="424" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="425" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="426" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="427" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="428" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="429" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="430" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="431" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="432" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="433" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="434" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="435" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="436" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="437" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="438" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="439" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="440" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="441" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="442" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="443" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="444" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="445" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="446" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="447" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="448" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="449" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="450" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="451" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="452" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="453" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="454" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="455" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="456" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="457" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="458" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="459" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="460" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="461" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="462" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="463" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="464" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="465" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="466" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="467" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="468" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="469" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="470" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="471" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="472" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="473" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="474" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="475" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="476" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="477" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="478" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="479" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="480" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="481" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="482" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="483" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="484" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="485" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="486" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="487" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="488" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="489" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="490" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="491" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="492" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="493" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="494" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="495" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="496" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="497" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="498" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="499" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="500" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="501" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="502" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="503" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="504" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="505" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="506" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="507" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="508" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="509" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="510" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="511" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="512" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="513" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="514" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="515" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="516" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="517" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="518" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="519" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="520" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="521" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="522" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="523" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="524" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="525" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="526" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="527" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="528" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="529" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="530" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="531" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="532" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="533" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="534" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="535" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="536" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="537" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="538" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="539" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="540" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="541" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="542" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="543" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="544" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="545" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="546" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="547" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="548" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="549" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="550" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="551" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="552" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="553" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="554" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="555" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="556" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="557" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="558" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="559" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="560" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="561" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="562" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="563" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="564" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="565" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="566" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="567" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="568" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="569" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="570" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="571" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="572" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="573" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="574" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="575" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="576" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="577" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="578" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="579" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="580" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="581" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="582" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="583" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="584" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="585" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="586" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="587" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="588" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="589" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="590" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="591" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="592" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="593" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="594" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="595" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="596" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="597" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="598" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="599" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="600" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="601" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="602" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="603" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="604" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="605" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="606" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="607" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="608" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="609" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="610" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="611" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="612" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="613" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="614" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="615" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="616" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="617" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="618" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="619" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="620" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="621" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="622" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="623" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="624" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="625" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="626" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="627" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="628" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="629" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="630" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="631" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="632" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="633" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="634" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="635" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="636" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="637" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="638" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="639" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="640" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="641" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="642" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="643" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="644" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="645" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="646" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="647" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="648" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="649" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="650" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="651" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="652" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="653" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="654" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="655" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="656" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="657" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="658" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="659" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="660" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="661" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="662" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="663" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="664" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="665" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="666" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="667" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="668" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="669" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="670" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="671" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="672" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="673" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="674" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="675" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="676" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="677" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="678" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="679" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="680" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="681" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="682" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="683" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="684" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="685" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="686" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="687" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="688" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="689" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="690" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="691" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="692" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="693" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="694" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="695" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="696" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="697" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="698" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="699" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="700" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="701" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="702" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="703" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="704" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="705" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="706" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="707" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="708" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="709" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="710" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="711" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="712" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="713" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="714" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="715" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="716" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="717" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="718" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="719" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="720" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="721" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="722" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="723" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="724" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="725" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="726" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="727" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="728" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="729" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="730" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="731" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="732" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="733" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="734" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="735" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="736" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="737" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="738" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="739" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="740" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="741" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="742" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="743" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="744" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="745" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="746" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="747" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="748" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="749" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="750" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="751" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="752" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="753" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="754" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="755" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="756" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="757" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="758" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="759" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="760" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="761" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="762" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="763" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="764" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="765" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="766" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="767" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="768" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="769" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="770" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="771" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="772" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="773" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="774" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="775" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="776" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="777" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="778" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="779" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="780" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="781" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="782" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="783" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="784" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="785" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="786" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="787" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="788" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="789" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="790" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="791" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="792" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="793" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="794" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="795" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="796" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="797" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="798" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="799" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="800" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="801" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="802" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="803" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="804" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="805" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="806" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="807" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="808" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="809" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="810" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="811" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="812" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="813" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="814" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="815" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="816" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="817" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="818" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="819" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="820" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="821" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="822" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="823" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="824" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="825" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="826" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="827" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="828" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="829" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="830" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="831" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="832" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="833" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="834" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="835" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="836" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="837" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="838" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="839" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="840" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="841" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="842" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="843" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="844" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="845" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="846" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="847" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="848" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="849" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="850" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="851" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="852" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="853" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="854" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="855" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="856" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="857" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="858" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="859" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="860" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="861" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="862" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="863" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="864" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="865" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="866" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="867" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="868" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="869" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="870" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="871" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="872" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="873" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="874" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="875" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="876" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="877" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="878" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="879" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="880" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="881" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="882" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="883" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="884" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="885" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="886" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="887" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="888" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="889" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="890" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="891" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="892" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="893" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="894" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="895" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="896" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="897" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="898" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="899" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="900" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="901" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="902" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="903" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="904" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="905" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="906" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="907" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="908" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="909" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="910" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="911" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="912" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="913" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="914" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="915" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="916" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="917" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="918" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="919" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="920" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="921" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="922" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="923" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="924" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="925" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="926" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="927" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="928" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="929" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="930" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="931" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="932" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="933" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="934" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="935" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="936" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="937" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="938" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="939" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="940" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="941" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="942" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="943" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="944" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="945" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="946" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="947" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="948" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="949" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="950" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="951" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="952" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="953" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="954" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="955" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="956" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="957" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="958" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="959" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="960" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="961" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="962" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="963" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="964" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="965" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="966" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="967" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="968" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="969" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="970" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="971" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="972" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="973" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="974" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="975" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="976" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="977" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="978" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="979" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="980" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="981" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="982" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="983" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="984" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="985" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="986" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="987" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="988" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="989" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="990" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="991" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="992" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="993" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="994" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="995" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="996" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="997" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="998" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="999" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1000" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1001" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1002" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="33" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="34" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="35" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="36" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="37" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="38" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="39" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="40" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="41" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="42" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="43" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="44" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="45" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="46" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="47" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="48" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="49" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="50" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="51" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="52" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="53" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="54" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="55" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="56" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="57" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="58" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="59" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="60" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="61" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="62" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="63" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="64" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="65" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="66" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="67" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="68" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="69" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="70" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="71" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="72" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="73" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="74" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="75" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="76" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="77" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="78" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="79" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="80" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="81" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="82" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="83" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="84" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="85" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="86" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="87" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="88" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="89" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="90" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="91" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="92" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="93" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="94" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="95" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="96" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="97" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="98" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="99" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="100" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="101" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="102" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="103" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="104" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="105" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="106" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="107" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="108" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="109" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="110" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="111" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="112" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="113" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="114" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="115" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="116" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="117" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="118" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="119" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="120" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="121" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="122" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="123" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="124" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="125" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="126" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="127" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="128" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="129" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="130" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="131" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="132" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="133" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="134" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="135" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="136" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="137" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="138" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="139" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="140" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="141" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="142" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="143" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="144" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="145" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="146" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="147" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="148" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="149" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="150" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="151" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="152" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="153" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="154" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="155" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="156" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="157" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="158" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="159" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="160" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="161" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="162" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="163" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="164" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="165" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="166" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="167" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="168" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="169" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="170" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="171" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="172" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="173" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="174" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="175" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="176" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="177" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="178" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="179" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="180" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="181" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="182" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="183" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="184" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="185" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="186" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="187" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="188" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="189" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="190" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="191" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="192" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="193" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="194" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="195" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="196" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="197" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="198" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="199" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="200" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="201" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="202" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="203" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="204" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="205" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="206" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="207" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="208" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="209" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="210" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="211" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="212" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="213" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="214" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="215" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="216" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="217" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="218" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="219" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="220" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="221" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="222" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="223" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="224" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="225" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="226" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="227" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="228" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="229" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="230" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="231" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="232" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="233" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="234" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="235" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="236" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="237" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="238" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="239" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="240" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="241" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="242" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="243" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="244" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="245" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="246" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="247" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="248" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="249" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="250" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="251" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="252" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="253" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="254" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="255" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="256" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="257" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="258" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="259" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="260" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="261" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="262" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="263" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="264" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="265" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="266" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="267" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="268" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="269" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="270" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="271" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="272" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="273" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="274" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="275" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="276" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="277" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="278" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="279" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="280" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="281" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="282" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="283" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="284" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="285" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="286" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="287" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="288" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="289" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="290" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="291" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="292" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="293" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="294" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="295" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="296" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="297" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="298" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="299" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="300" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="301" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="302" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="303" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="304" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="305" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="306" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="307" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="308" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="309" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="310" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="311" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="312" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="313" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="314" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="315" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="316" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="317" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="318" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="319" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="320" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="321" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="322" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="323" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="324" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="325" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="326" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="327" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="328" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="329" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="330" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="331" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="332" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="333" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="334" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="335" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="336" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="337" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="338" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="339" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="340" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="341" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="342" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="343" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="344" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="345" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="346" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="347" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="348" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="349" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="350" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="351" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="352" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="353" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="354" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="355" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="356" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="357" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="358" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="359" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="360" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="361" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="362" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="363" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="364" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="365" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="366" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="367" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="368" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="369" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="370" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="371" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="372" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="373" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="374" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="375" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="376" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="377" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="378" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="379" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="380" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="381" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="382" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="383" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="384" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="385" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="386" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="387" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="388" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="389" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="390" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="391" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="392" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="393" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="394" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="395" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="396" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="397" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="398" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="399" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="400" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="401" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="402" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="403" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="404" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="405" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="406" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="407" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="408" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="409" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="410" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="411" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="412" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="413" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="414" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="415" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="416" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="417" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="418" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="419" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="420" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="421" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="422" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="423" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="424" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="425" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="426" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="427" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="428" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="429" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="430" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="431" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="432" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="433" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="434" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="435" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="436" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="437" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="438" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="439" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="440" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="441" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="442" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="443" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="444" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="445" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="446" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="447" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="448" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="449" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="450" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="451" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="452" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="453" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="454" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="455" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="456" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="457" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="458" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="459" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="460" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="461" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="462" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="463" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="464" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="465" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="466" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="467" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="468" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="469" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="470" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="471" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="472" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="473" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="474" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="475" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="476" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="477" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="478" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="479" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="480" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="481" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="482" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="483" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="484" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="485" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="486" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="487" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="488" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="489" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="490" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="491" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="492" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="493" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="494" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="495" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="496" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="497" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="498" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="499" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="500" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="501" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="502" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="503" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="504" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="505" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="506" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="507" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="508" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="509" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="510" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="511" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="512" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="513" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="514" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="515" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="516" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="517" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="518" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="519" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="520" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="521" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="522" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="523" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="524" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="525" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="526" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="527" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="528" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="529" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="530" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="531" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="532" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="533" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="534" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="535" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="536" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="537" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="538" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="539" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="540" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="541" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="542" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="543" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="544" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="545" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="546" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="547" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="548" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="549" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="550" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="551" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="552" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="553" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="554" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="555" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="556" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="557" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="558" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="559" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="560" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="561" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="562" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="563" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="564" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="565" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="566" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="567" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="568" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="569" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="570" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="571" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="572" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="573" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="574" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="575" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="576" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="577" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="578" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="579" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="580" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="581" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="582" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="583" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="584" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="585" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="586" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="587" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="588" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="589" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="590" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="591" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="592" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="593" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="594" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="595" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="596" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="597" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="598" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="599" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="600" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="601" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="602" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="603" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="604" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="605" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="606" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="607" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="608" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="609" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="610" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="611" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="612" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="613" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="614" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="615" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="616" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="617" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="618" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="619" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="620" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="621" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="622" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="623" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="624" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="625" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="626" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="627" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="628" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="629" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="630" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="631" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="632" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="633" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="634" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="635" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="636" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="637" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="638" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="639" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="640" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="641" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="642" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="643" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="644" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="645" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="646" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="647" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="648" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="649" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="650" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="651" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="652" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="653" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="654" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="655" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="656" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="657" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="658" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="659" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="660" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="661" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="662" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="663" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="664" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="665" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="666" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="667" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="668" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="669" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="670" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="671" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="672" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="673" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="674" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="675" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="676" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="677" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="678" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="679" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="680" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="681" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="682" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="683" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="684" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="685" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="686" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="687" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="688" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="689" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="690" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="691" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="692" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="693" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="694" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="695" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="696" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="697" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="698" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="699" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="700" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="701" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="702" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="703" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="704" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="705" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="706" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="707" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="708" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="709" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="710" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="711" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="712" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="713" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="714" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="715" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="716" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="717" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="718" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="719" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="720" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="721" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="722" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="723" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="724" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="725" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="726" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="727" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="728" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="729" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="730" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="731" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="732" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="733" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="734" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="735" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="736" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="737" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="738" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="739" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="740" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="741" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="742" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="743" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="744" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="745" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="746" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="747" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="748" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="749" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="750" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="751" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="752" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="753" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="754" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="755" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="756" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="757" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="758" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="759" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="760" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="761" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="762" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="763" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="764" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="765" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="766" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="767" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="768" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="769" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="770" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="771" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="772" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="773" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="774" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="775" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="776" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="777" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="778" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="779" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="780" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="781" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="782" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="783" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="784" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="785" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="786" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="787" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="788" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="789" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="790" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="791" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="792" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="793" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="794" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="795" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="796" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="797" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="798" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="799" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="800" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="801" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="802" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="803" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="804" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="805" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="806" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="807" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="808" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="809" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="810" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="811" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="812" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="813" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="814" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="815" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="816" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="817" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="818" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="819" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="820" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="821" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="822" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="823" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="824" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="825" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="826" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="827" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="828" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="829" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="830" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="831" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="832" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="833" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="834" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="835" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="836" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="837" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="838" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="839" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="840" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="841" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="842" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="843" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="844" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="845" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="846" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="847" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="848" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="849" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="850" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="851" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="852" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="853" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="854" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="855" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="856" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="857" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="858" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="859" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="860" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="861" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="862" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="863" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="864" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="865" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="866" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="867" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="868" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="869" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="870" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="871" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="872" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="873" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="874" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="875" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="876" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="877" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="878" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="879" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="880" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="881" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="882" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="883" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="884" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="885" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="886" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="887" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="888" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="889" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="890" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="891" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="892" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="893" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="894" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="895" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="896" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="897" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="898" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="899" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="900" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="901" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="902" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="903" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="904" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="905" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="906" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="907" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="908" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="909" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="910" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="911" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="912" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="913" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="914" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="915" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="916" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="917" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="918" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="919" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="920" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="921" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="922" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="923" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="924" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="925" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="926" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="927" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="928" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="929" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="930" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="931" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="932" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="933" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="934" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="935" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="936" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="937" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="938" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="939" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="940" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="941" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="942" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="943" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="944" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="945" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="946" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="947" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="948" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="949" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="950" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="951" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="952" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="953" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="954" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="955" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="956" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="957" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="958" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="959" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="960" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="961" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="962" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="963" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="964" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="965" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="966" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="967" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="968" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="969" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="970" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="971" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="972" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="973" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="974" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="975" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="976" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="977" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="978" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="979" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="980" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="981" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="982" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="983" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="984" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="985" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="986" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="987" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="988" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="989" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="990" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="991" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="992" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="993" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="994" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="995" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="996" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="997" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="998" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="999" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1000" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1001" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1002" s="69" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A2:A3"/>
@@ -39195,173 +39195,173 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="26" width="22.19921875" style="75" customWidth="1"/>
-    <col min="27" max="16384" width="12.59765625" style="75"/>
+    <col min="1" max="26" width="22.19921875" style="69" customWidth="1"/>
+    <col min="27" max="16384" width="12.59765625" style="69"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A1" s="128" t="s">
+      <c r="A1" s="113" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="203" t="s">
+      <c r="B1" s="188" t="s">
         <v>131</v>
       </c>
-      <c r="C1" s="134"/>
-      <c r="D1" s="133"/>
+      <c r="C1" s="189"/>
+      <c r="D1" s="190"/>
     </row>
     <row r="2" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A2" s="128" t="s">
+      <c r="A2" s="113" t="s">
         <v>66</v>
       </c>
-      <c r="B2" s="132">
+      <c r="B2" s="117">
         <v>1</v>
       </c>
-      <c r="C2" s="128" t="s">
+      <c r="C2" s="113" t="s">
         <v>70</v>
       </c>
-      <c r="D2" s="131">
+      <c r="D2" s="116">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A3" s="128" t="s">
+      <c r="A3" s="113" t="s">
         <v>71</v>
       </c>
-      <c r="B3" s="130" t="s">
+      <c r="B3" s="115" t="s">
         <v>158</v>
       </c>
-      <c r="C3" s="128" t="s">
+      <c r="C3" s="113" t="s">
         <v>72</v>
       </c>
-      <c r="D3" s="130" t="s">
+      <c r="D3" s="115" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A4" s="128" t="s">
+      <c r="A4" s="113" t="s">
         <v>73</v>
       </c>
-      <c r="B4" s="130" t="s">
+      <c r="B4" s="115" t="s">
         <v>85</v>
       </c>
-      <c r="C4" s="128" t="s">
+      <c r="C4" s="113" t="s">
         <v>75</v>
       </c>
-      <c r="D4" s="130">
+      <c r="D4" s="115">
         <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A5" s="128" t="s">
+      <c r="A5" s="113" t="s">
         <v>76</v>
       </c>
-      <c r="B5" s="130" t="s">
+      <c r="B5" s="115" t="s">
         <v>43</v>
       </c>
-      <c r="C5" s="128" t="s">
+      <c r="C5" s="113" t="s">
         <v>78</v>
       </c>
-      <c r="D5" s="130" t="s">
+      <c r="D5" s="115" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A6" s="81" t="s">
+      <c r="A6" s="75" t="s">
         <v>80</v>
       </c>
-      <c r="B6" s="81" t="s">
+      <c r="B6" s="75" t="s">
         <v>43</v>
       </c>
-      <c r="C6" s="130" t="s">
+      <c r="C6" s="115" t="s">
         <v>74</v>
       </c>
-      <c r="D6" s="130"/>
+      <c r="D6" s="115"/>
     </row>
     <row r="7" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A7" s="81" t="s">
+      <c r="A7" s="75" t="s">
         <v>42</v>
       </c>
-      <c r="B7" s="81" t="s">
+      <c r="B7" s="75" t="s">
         <v>81</v>
       </c>
-      <c r="C7" s="130" t="s">
+      <c r="C7" s="115" t="s">
         <v>82</v>
       </c>
-      <c r="D7" s="130"/>
+      <c r="D7" s="115"/>
     </row>
     <row r="8" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A8" s="81" t="s">
+      <c r="A8" s="75" t="s">
         <v>77</v>
       </c>
-      <c r="B8" s="81" t="s">
+      <c r="B8" s="75" t="s">
         <v>79</v>
       </c>
-      <c r="C8" s="130" t="s">
+      <c r="C8" s="115" t="s">
         <v>83</v>
       </c>
-      <c r="D8" s="130"/>
+      <c r="D8" s="115"/>
     </row>
     <row r="9" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A9" s="81" t="s">
+      <c r="A9" s="75" t="s">
         <v>35</v>
       </c>
-      <c r="B9" s="130"/>
-      <c r="C9" s="130" t="s">
+      <c r="B9" s="115"/>
+      <c r="C9" s="115" t="s">
         <v>84</v>
       </c>
-      <c r="D9" s="130"/>
+      <c r="D9" s="115"/>
     </row>
     <row r="10" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A10" s="200" t="s">
+      <c r="A10" s="170" t="s">
         <v>43</v>
       </c>
-      <c r="B10" s="130"/>
-      <c r="C10" s="199" t="s">
+      <c r="B10" s="115"/>
+      <c r="C10" s="169" t="s">
         <v>85</v>
       </c>
-      <c r="D10" s="130"/>
+      <c r="D10" s="115"/>
     </row>
     <row r="11" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A11" s="81" t="s">
+      <c r="A11" s="75" t="s">
         <v>34</v>
       </c>
-      <c r="B11" s="130"/>
-      <c r="C11" s="130"/>
-      <c r="D11" s="130"/>
+      <c r="B11" s="115"/>
+      <c r="C11" s="115"/>
+      <c r="D11" s="115"/>
     </row>
     <row r="12" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A12" s="128" t="s">
+      <c r="A12" s="113" t="s">
         <v>86</v>
       </c>
-      <c r="B12" s="199" t="s">
+      <c r="B12" s="169" t="s">
         <v>175</v>
       </c>
-      <c r="C12" s="128" t="s">
+      <c r="C12" s="113" t="s">
         <v>87</v>
       </c>
-      <c r="D12" s="199" t="s">
+      <c r="D12" s="169" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="188.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="129" t="s">
+      <c r="A13" s="114" t="s">
         <v>88</v>
       </c>
-      <c r="B13" s="207" t="s">
+      <c r="B13" s="191" t="s">
         <v>157</v>
       </c>
-      <c r="C13" s="126"/>
-      <c r="D13" s="125"/>
-      <c r="E13" s="124"/>
+      <c r="C13" s="192"/>
+      <c r="D13" s="193"/>
+      <c r="E13" s="112"/>
     </row>
     <row r="14" spans="1:5" ht="145.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="128" t="s">
+      <c r="A14" s="113" t="s">
         <v>89</v>
       </c>
-      <c r="B14" s="127"/>
-      <c r="C14" s="126"/>
-      <c r="D14" s="125"/>
-      <c r="E14" s="124"/>
+      <c r="B14" s="194"/>
+      <c r="C14" s="192"/>
+      <c r="D14" s="193"/>
+      <c r="E14" s="112"/>
     </row>
     <row r="22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -40370,593 +40370,593 @@
   <dimension ref="A1:J1002"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K24" sqref="K24"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.59765625" style="138" customWidth="1"/>
-    <col min="2" max="2" width="28.3984375" style="138" customWidth="1"/>
-    <col min="3" max="3" width="31.09765625" style="138" customWidth="1"/>
-    <col min="4" max="6" width="7.59765625" style="138" customWidth="1"/>
-    <col min="7" max="7" width="24.5" style="138" customWidth="1"/>
-    <col min="8" max="8" width="10.8984375" style="138" customWidth="1"/>
-    <col min="9" max="26" width="7.59765625" style="138" customWidth="1"/>
-    <col min="27" max="16384" width="12.59765625" style="138"/>
+    <col min="1" max="1" width="7.59765625" style="121" customWidth="1"/>
+    <col min="2" max="2" width="28.3984375" style="121" customWidth="1"/>
+    <col min="3" max="3" width="31.09765625" style="121" customWidth="1"/>
+    <col min="4" max="6" width="7.59765625" style="121" customWidth="1"/>
+    <col min="7" max="7" width="24.5" style="121" customWidth="1"/>
+    <col min="8" max="8" width="10.8984375" style="121" customWidth="1"/>
+    <col min="9" max="26" width="7.59765625" style="121" customWidth="1"/>
+    <col min="27" max="16384" width="12.59765625" style="121"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A1" s="185"/>
-      <c r="B1" s="166" t="s">
+      <c r="A1" s="162"/>
+      <c r="B1" s="149" t="s">
         <v>49</v>
       </c>
-      <c r="C1" s="184" t="s">
+      <c r="C1" s="161" t="s">
         <v>174</v>
       </c>
-      <c r="D1" s="168"/>
-      <c r="E1" s="167"/>
-      <c r="F1" s="166" t="s">
+      <c r="D1" s="151"/>
+      <c r="E1" s="150"/>
+      <c r="F1" s="149" t="s">
         <v>50</v>
       </c>
-      <c r="G1" s="183">
+      <c r="G1" s="160">
         <v>2</v>
       </c>
-      <c r="H1" s="164"/>
+      <c r="H1" s="147"/>
     </row>
     <row r="2" spans="1:10" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A2" s="182"/>
-      <c r="B2" s="181" t="s">
+      <c r="A2" s="195"/>
+      <c r="B2" s="197" t="s">
         <v>51</v>
       </c>
-      <c r="C2" s="180" t="s">
+      <c r="C2" s="199" t="s">
         <v>160</v>
       </c>
-      <c r="D2" s="175"/>
-      <c r="E2" s="174"/>
-      <c r="F2" s="173" t="s">
+      <c r="D2" s="158"/>
+      <c r="E2" s="157"/>
+      <c r="F2" s="156" t="s">
         <v>52</v>
       </c>
-      <c r="G2" s="179" t="s">
+      <c r="G2" s="159" t="s">
         <v>154</v>
       </c>
-      <c r="H2" s="171"/>
+      <c r="H2" s="154"/>
     </row>
     <row r="3" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="178"/>
-      <c r="B3" s="177"/>
-      <c r="C3" s="176"/>
-      <c r="D3" s="175"/>
-      <c r="E3" s="174"/>
-      <c r="F3" s="173" t="s">
+      <c r="A3" s="196"/>
+      <c r="B3" s="198"/>
+      <c r="C3" s="200"/>
+      <c r="D3" s="158"/>
+      <c r="E3" s="157"/>
+      <c r="F3" s="156" t="s">
         <v>53</v>
       </c>
-      <c r="G3" s="172">
+      <c r="G3" s="155">
         <v>3</v>
       </c>
-      <c r="H3" s="171"/>
+      <c r="H3" s="154"/>
     </row>
     <row r="4" spans="1:10" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A4" s="170"/>
-      <c r="B4" s="166" t="s">
+      <c r="A4" s="153"/>
+      <c r="B4" s="149" t="s">
         <v>54</v>
       </c>
-      <c r="C4" s="169" t="s">
+      <c r="C4" s="152" t="s">
         <v>173</v>
       </c>
-      <c r="D4" s="168"/>
-      <c r="E4" s="167"/>
-      <c r="F4" s="166" t="s">
+      <c r="D4" s="151"/>
+      <c r="E4" s="150"/>
+      <c r="F4" s="149" t="s">
         <v>55</v>
       </c>
-      <c r="G4" s="165">
+      <c r="G4" s="148">
         <v>44326</v>
       </c>
-      <c r="H4" s="164"/>
+      <c r="H4" s="147"/>
     </row>
     <row r="5" spans="1:10" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A5" s="162"/>
-      <c r="B5" s="159"/>
-      <c r="C5" s="159"/>
-      <c r="D5" s="161"/>
-      <c r="E5" s="161"/>
-      <c r="F5" s="161"/>
-      <c r="G5" s="159"/>
-      <c r="H5" s="159"/>
+      <c r="A5" s="145"/>
+      <c r="B5" s="142"/>
+      <c r="C5" s="142"/>
+      <c r="D5" s="144"/>
+      <c r="E5" s="144"/>
+      <c r="F5" s="144"/>
+      <c r="G5" s="142"/>
+      <c r="H5" s="142"/>
     </row>
     <row r="6" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A6" s="162"/>
-      <c r="B6" s="139"/>
-      <c r="C6" s="139"/>
-      <c r="D6" s="161"/>
-      <c r="E6" s="160"/>
-      <c r="F6" s="160"/>
-      <c r="G6" s="160"/>
-      <c r="H6" s="159"/>
+      <c r="A6" s="145"/>
+      <c r="B6" s="122"/>
+      <c r="C6" s="122"/>
+      <c r="D6" s="144"/>
+      <c r="E6" s="143"/>
+      <c r="F6" s="143"/>
+      <c r="G6" s="143"/>
+      <c r="H6" s="142"/>
     </row>
     <row r="7" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A7" s="162"/>
-      <c r="B7" s="139"/>
-      <c r="C7" s="159"/>
-      <c r="D7" s="163"/>
-      <c r="E7" s="160"/>
-      <c r="F7" s="160"/>
-      <c r="G7" s="160"/>
-      <c r="H7" s="159"/>
+      <c r="A7" s="145"/>
+      <c r="B7" s="122"/>
+      <c r="C7" s="142"/>
+      <c r="D7" s="146"/>
+      <c r="E7" s="143"/>
+      <c r="F7" s="143"/>
+      <c r="G7" s="143"/>
+      <c r="H7" s="142"/>
     </row>
     <row r="8" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A8" s="162"/>
-      <c r="B8" s="139"/>
-      <c r="C8" s="139"/>
-      <c r="D8" s="163"/>
-      <c r="E8" s="160"/>
-      <c r="F8" s="160"/>
-      <c r="G8" s="160"/>
-      <c r="H8" s="159"/>
-      <c r="J8" s="138" t="s">
+      <c r="A8" s="145"/>
+      <c r="B8" s="122"/>
+      <c r="C8" s="122"/>
+      <c r="D8" s="146"/>
+      <c r="E8" s="143"/>
+      <c r="F8" s="143"/>
+      <c r="G8" s="143"/>
+      <c r="H8" s="142"/>
+      <c r="J8" s="121" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A9" s="162"/>
-      <c r="B9" s="139"/>
-      <c r="C9" s="139"/>
-      <c r="D9" s="163"/>
-      <c r="E9" s="160"/>
-      <c r="F9" s="160"/>
-      <c r="G9" s="160"/>
-      <c r="H9" s="159"/>
+      <c r="A9" s="145"/>
+      <c r="B9" s="122"/>
+      <c r="C9" s="122"/>
+      <c r="D9" s="146"/>
+      <c r="E9" s="143"/>
+      <c r="F9" s="143"/>
+      <c r="G9" s="143"/>
+      <c r="H9" s="142"/>
     </row>
     <row r="10" spans="1:10" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A10" s="162"/>
-      <c r="B10" s="159"/>
-      <c r="C10" s="159"/>
-      <c r="D10" s="161"/>
-      <c r="E10" s="160"/>
-      <c r="G10" s="160"/>
-      <c r="H10" s="159"/>
+      <c r="A10" s="145"/>
+      <c r="B10" s="142"/>
+      <c r="C10" s="142"/>
+      <c r="D10" s="144"/>
+      <c r="E10" s="143"/>
+      <c r="G10" s="143"/>
+      <c r="H10" s="142"/>
     </row>
     <row r="11" spans="1:10" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="162"/>
-      <c r="B11" s="159"/>
-      <c r="C11" s="159"/>
-      <c r="D11" s="161"/>
-      <c r="E11" s="161"/>
-      <c r="F11" s="160"/>
-      <c r="G11" s="159"/>
-      <c r="H11" s="159"/>
+      <c r="A11" s="145"/>
+      <c r="B11" s="142"/>
+      <c r="C11" s="142"/>
+      <c r="D11" s="144"/>
+      <c r="E11" s="144"/>
+      <c r="F11" s="143"/>
+      <c r="G11" s="142"/>
+      <c r="H11" s="142"/>
     </row>
     <row r="12" spans="1:10" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="158">
+      <c r="A12" s="141">
         <f>COUNTA(A14:A24)</f>
         <v>4</v>
       </c>
-      <c r="B12" s="157" t="s">
+      <c r="B12" s="140" t="s">
         <v>56</v>
       </c>
-      <c r="C12" s="156" t="s">
+      <c r="C12" s="139" t="s">
         <v>57</v>
       </c>
-      <c r="D12" s="155">
+      <c r="D12" s="138">
         <f>COUNTIF(D14:D24,"x")</f>
         <v>3</v>
       </c>
-      <c r="E12" s="155">
+      <c r="E12" s="138">
         <f>1</f>
         <v>1</v>
       </c>
-      <c r="F12" s="155">
+      <c r="F12" s="138">
         <f>COUNTIF(F14:F24,"x")</f>
         <v>0</v>
       </c>
-      <c r="G12" s="154" t="s">
+      <c r="G12" s="137" t="s">
         <v>58</v>
       </c>
-      <c r="H12" s="153">
+      <c r="H12" s="136">
         <f>(D12+E12+F12)/A12</f>
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="26.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="152" t="s">
+      <c r="A13" s="135" t="s">
         <v>59</v>
       </c>
-      <c r="B13" s="151" t="s">
+      <c r="B13" s="134" t="s">
         <v>60</v>
       </c>
-      <c r="C13" s="151" t="s">
+      <c r="C13" s="134" t="s">
         <v>61</v>
       </c>
-      <c r="D13" s="150" t="s">
+      <c r="D13" s="133" t="s">
         <v>62</v>
       </c>
-      <c r="E13" s="150" t="s">
+      <c r="E13" s="133" t="s">
         <v>63</v>
       </c>
-      <c r="F13" s="150" t="s">
+      <c r="F13" s="133" t="s">
         <v>64</v>
       </c>
-      <c r="G13" s="149" t="s">
+      <c r="G13" s="132" t="s">
         <v>65</v>
       </c>
-      <c r="H13" s="148" t="s">
+      <c r="H13" s="131" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A14" s="147">
+      <c r="A14" s="130">
         <v>1</v>
       </c>
-      <c r="B14" s="146" t="s">
+      <c r="B14" s="129" t="s">
         <v>152</v>
       </c>
-      <c r="C14" s="146" t="s">
+      <c r="C14" s="129" t="s">
         <v>151</v>
       </c>
-      <c r="D14" s="143" t="s">
+      <c r="D14" s="126" t="s">
         <v>67</v>
       </c>
-      <c r="E14" s="143"/>
-      <c r="F14" s="143"/>
-      <c r="G14" s="146" t="s">
+      <c r="E14" s="126"/>
+      <c r="F14" s="126"/>
+      <c r="G14" s="129" t="s">
         <v>151</v>
       </c>
-      <c r="H14" s="145"/>
+      <c r="H14" s="128"/>
     </row>
     <row r="15" spans="1:10" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A15" s="144">
+      <c r="A15" s="127">
         <f>A14 + 1</f>
         <v>2</v>
       </c>
-      <c r="B15" s="141" t="s">
+      <c r="B15" s="124" t="s">
         <v>172</v>
       </c>
-      <c r="C15" s="141" t="s">
+      <c r="C15" s="124" t="s">
         <v>171</v>
       </c>
-      <c r="D15" s="143" t="s">
+      <c r="D15" s="126" t="s">
         <v>67</v>
       </c>
-      <c r="E15" s="142"/>
-      <c r="F15" s="142"/>
-      <c r="G15" s="141" t="s">
+      <c r="E15" s="125"/>
+      <c r="F15" s="125"/>
+      <c r="G15" s="124" t="s">
         <v>171</v>
       </c>
-      <c r="H15" s="140"/>
+      <c r="H15" s="123"/>
     </row>
     <row r="16" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A16" s="144">
+      <c r="A16" s="127">
         <v>3</v>
       </c>
-      <c r="B16" s="141" t="s">
+      <c r="B16" s="124" t="s">
         <v>170</v>
       </c>
-      <c r="C16" s="141" t="s">
+      <c r="C16" s="124" t="s">
         <v>169</v>
       </c>
-      <c r="D16" s="143" t="s">
+      <c r="D16" s="126" t="s">
         <v>67</v>
       </c>
-      <c r="E16" s="143"/>
-      <c r="F16" s="142"/>
-      <c r="G16" s="141" t="s">
+      <c r="E16" s="126"/>
+      <c r="F16" s="125"/>
+      <c r="G16" s="124" t="s">
         <v>169</v>
       </c>
-      <c r="H16" s="140"/>
+      <c r="H16" s="123"/>
     </row>
     <row r="17" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="144">
+      <c r="A17" s="127">
         <v>4</v>
       </c>
-      <c r="B17" s="141" t="s">
+      <c r="B17" s="124" t="s">
         <v>168</v>
       </c>
-      <c r="C17" s="141" t="s">
+      <c r="C17" s="124" t="s">
         <v>167</v>
       </c>
-      <c r="D17" s="143"/>
-      <c r="E17" s="143" t="s">
+      <c r="D17" s="126"/>
+      <c r="E17" s="126" t="s">
         <v>68</v>
       </c>
-      <c r="F17" s="142"/>
-      <c r="G17" s="141" t="s">
+      <c r="F17" s="125"/>
+      <c r="G17" s="124" t="s">
         <v>166</v>
       </c>
-      <c r="H17" s="140">
+      <c r="H17" s="123">
         <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="139" t="s">
+      <c r="B18" s="122" t="s">
         <v>145</v>
       </c>
-      <c r="C18" s="139" t="s">
+      <c r="C18" s="122" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="185"/>
-      <c r="B25" s="166" t="s">
+      <c r="A25" s="162"/>
+      <c r="B25" s="149" t="s">
         <v>49</v>
       </c>
-      <c r="C25" s="184" t="s">
+      <c r="C25" s="161" t="s">
         <v>189</v>
       </c>
-      <c r="D25" s="168"/>
-      <c r="E25" s="167"/>
-      <c r="F25" s="166" t="s">
+      <c r="D25" s="151"/>
+      <c r="E25" s="150"/>
+      <c r="F25" s="149" t="s">
         <v>50</v>
       </c>
-      <c r="G25" s="183">
+      <c r="G25" s="160">
         <v>3</v>
       </c>
-      <c r="H25" s="164"/>
+      <c r="H25" s="147"/>
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="182"/>
-      <c r="B26" s="181" t="s">
+      <c r="A26" s="195"/>
+      <c r="B26" s="197" t="s">
         <v>51</v>
       </c>
-      <c r="C26" s="180" t="s">
+      <c r="C26" s="199" t="s">
         <v>137</v>
       </c>
-      <c r="D26" s="175"/>
-      <c r="E26" s="174"/>
-      <c r="F26" s="173" t="s">
+      <c r="D26" s="158"/>
+      <c r="E26" s="157"/>
+      <c r="F26" s="156" t="s">
         <v>52</v>
       </c>
-      <c r="G26" s="179" t="s">
+      <c r="G26" s="159" t="s">
         <v>154</v>
       </c>
-      <c r="H26" s="171"/>
+      <c r="H26" s="154"/>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="178"/>
-      <c r="B27" s="177"/>
-      <c r="C27" s="176"/>
-      <c r="D27" s="175"/>
-      <c r="E27" s="174"/>
-      <c r="F27" s="173" t="s">
+      <c r="A27" s="196"/>
+      <c r="B27" s="198"/>
+      <c r="C27" s="200"/>
+      <c r="D27" s="158"/>
+      <c r="E27" s="157"/>
+      <c r="F27" s="156" t="s">
         <v>53</v>
       </c>
-      <c r="G27" s="172">
+      <c r="G27" s="155">
         <v>4</v>
       </c>
-      <c r="H27" s="171"/>
+      <c r="H27" s="154"/>
     </row>
     <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="170"/>
-      <c r="B28" s="166" t="s">
+      <c r="A28" s="153"/>
+      <c r="B28" s="149" t="s">
         <v>54</v>
       </c>
-      <c r="C28" s="169" t="s">
+      <c r="C28" s="152" t="s">
         <v>173</v>
       </c>
-      <c r="D28" s="168"/>
-      <c r="E28" s="167"/>
-      <c r="F28" s="166" t="s">
+      <c r="D28" s="151"/>
+      <c r="E28" s="150"/>
+      <c r="F28" s="149" t="s">
         <v>55</v>
       </c>
-      <c r="G28" s="165">
+      <c r="G28" s="148">
         <v>44326</v>
       </c>
-      <c r="H28" s="164"/>
+      <c r="H28" s="147"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="162"/>
-      <c r="B29" s="159"/>
-      <c r="C29" s="159"/>
-      <c r="D29" s="161"/>
-      <c r="E29" s="161"/>
-      <c r="F29" s="161"/>
-      <c r="G29" s="159"/>
-      <c r="H29" s="159"/>
+      <c r="A29" s="145"/>
+      <c r="B29" s="142"/>
+      <c r="C29" s="142"/>
+      <c r="D29" s="144"/>
+      <c r="E29" s="144"/>
+      <c r="F29" s="144"/>
+      <c r="G29" s="142"/>
+      <c r="H29" s="142"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="162"/>
-      <c r="B30" s="139"/>
-      <c r="C30" s="139"/>
-      <c r="D30" s="161"/>
-      <c r="E30" s="160"/>
-      <c r="F30" s="160"/>
-      <c r="G30" s="160"/>
-      <c r="H30" s="159"/>
+      <c r="A30" s="145"/>
+      <c r="B30" s="122"/>
+      <c r="C30" s="122"/>
+      <c r="D30" s="144"/>
+      <c r="E30" s="143"/>
+      <c r="F30" s="143"/>
+      <c r="G30" s="143"/>
+      <c r="H30" s="142"/>
     </row>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="162"/>
-      <c r="B31" s="139"/>
-      <c r="C31" s="159"/>
-      <c r="D31" s="163"/>
-      <c r="E31" s="160"/>
-      <c r="F31" s="160"/>
-      <c r="G31" s="160"/>
-      <c r="H31" s="159"/>
+      <c r="A31" s="145"/>
+      <c r="B31" s="122"/>
+      <c r="C31" s="142"/>
+      <c r="D31" s="146"/>
+      <c r="E31" s="143"/>
+      <c r="F31" s="143"/>
+      <c r="G31" s="143"/>
+      <c r="H31" s="142"/>
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="162"/>
-      <c r="B32" s="139"/>
-      <c r="C32" s="139"/>
-      <c r="D32" s="163"/>
-      <c r="E32" s="160"/>
-      <c r="F32" s="160"/>
-      <c r="G32" s="160"/>
-      <c r="H32" s="159"/>
+      <c r="A32" s="145"/>
+      <c r="B32" s="122"/>
+      <c r="C32" s="122"/>
+      <c r="D32" s="146"/>
+      <c r="E32" s="143"/>
+      <c r="F32" s="143"/>
+      <c r="G32" s="143"/>
+      <c r="H32" s="142"/>
     </row>
     <row r="33" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="162"/>
-      <c r="B33" s="139"/>
-      <c r="C33" s="139"/>
-      <c r="D33" s="163"/>
-      <c r="E33" s="160"/>
-      <c r="F33" s="160"/>
-      <c r="G33" s="160"/>
-      <c r="H33" s="159"/>
+      <c r="A33" s="145"/>
+      <c r="B33" s="122"/>
+      <c r="C33" s="122"/>
+      <c r="D33" s="146"/>
+      <c r="E33" s="143"/>
+      <c r="F33" s="143"/>
+      <c r="G33" s="143"/>
+      <c r="H33" s="142"/>
     </row>
     <row r="34" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="162"/>
-      <c r="B34" s="159"/>
-      <c r="C34" s="159"/>
-      <c r="D34" s="161"/>
-      <c r="E34" s="160"/>
-      <c r="G34" s="160"/>
-      <c r="H34" s="159"/>
+      <c r="A34" s="145"/>
+      <c r="B34" s="142"/>
+      <c r="C34" s="142"/>
+      <c r="D34" s="144"/>
+      <c r="E34" s="143"/>
+      <c r="G34" s="143"/>
+      <c r="H34" s="142"/>
     </row>
     <row r="35" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="162"/>
-      <c r="B35" s="159"/>
-      <c r="C35" s="159"/>
-      <c r="D35" s="161"/>
-      <c r="E35" s="161"/>
-      <c r="F35" s="160"/>
-      <c r="G35" s="159"/>
-      <c r="H35" s="159"/>
+      <c r="A35" s="145"/>
+      <c r="B35" s="142"/>
+      <c r="C35" s="142"/>
+      <c r="D35" s="144"/>
+      <c r="E35" s="144"/>
+      <c r="F35" s="143"/>
+      <c r="G35" s="142"/>
+      <c r="H35" s="142"/>
     </row>
     <row r="36" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="158">
+      <c r="A36" s="141">
         <f>COUNTA(A38:A42)</f>
         <v>4</v>
       </c>
-      <c r="B36" s="157" t="s">
+      <c r="B36" s="140" t="s">
         <v>56</v>
       </c>
-      <c r="C36" s="156" t="s">
+      <c r="C36" s="139" t="s">
         <v>57</v>
       </c>
-      <c r="D36" s="155">
+      <c r="D36" s="138">
         <f>COUNTIF(D38:D42,"x")</f>
         <v>3</v>
       </c>
-      <c r="E36" s="155">
+      <c r="E36" s="138">
         <f>1</f>
         <v>1</v>
       </c>
-      <c r="F36" s="155">
+      <c r="F36" s="138">
         <f>COUNTIF(F38:F42,"x")</f>
         <v>0</v>
       </c>
-      <c r="G36" s="154" t="s">
+      <c r="G36" s="137" t="s">
         <v>58</v>
       </c>
-      <c r="H36" s="153">
+      <c r="H36" s="136">
         <f>(D36+E36+F36)/A36</f>
         <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="152" t="s">
+      <c r="A37" s="135" t="s">
         <v>59</v>
       </c>
-      <c r="B37" s="151" t="s">
+      <c r="B37" s="134" t="s">
         <v>60</v>
       </c>
-      <c r="C37" s="151" t="s">
+      <c r="C37" s="134" t="s">
         <v>61</v>
       </c>
-      <c r="D37" s="150" t="s">
+      <c r="D37" s="133" t="s">
         <v>62</v>
       </c>
-      <c r="E37" s="150" t="s">
+      <c r="E37" s="133" t="s">
         <v>63</v>
       </c>
-      <c r="F37" s="150" t="s">
+      <c r="F37" s="133" t="s">
         <v>64</v>
       </c>
-      <c r="G37" s="149" t="s">
+      <c r="G37" s="132" t="s">
         <v>65</v>
       </c>
-      <c r="H37" s="148" t="s">
+      <c r="H37" s="131" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="147">
+      <c r="A38" s="130">
         <v>1</v>
       </c>
-      <c r="B38" s="146" t="s">
+      <c r="B38" s="129" t="s">
         <v>152</v>
       </c>
-      <c r="C38" s="146" t="s">
+      <c r="C38" s="129" t="s">
         <v>151</v>
       </c>
-      <c r="D38" s="143" t="s">
+      <c r="D38" s="126" t="s">
         <v>67</v>
       </c>
-      <c r="E38" s="143"/>
-      <c r="F38" s="143"/>
-      <c r="G38" s="146" t="s">
+      <c r="E38" s="126"/>
+      <c r="F38" s="126"/>
+      <c r="G38" s="129" t="s">
         <v>151</v>
       </c>
-      <c r="H38" s="145"/>
+      <c r="H38" s="128"/>
     </row>
     <row r="39" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="144">
+      <c r="A39" s="127">
         <f>A38 + 1</f>
         <v>2</v>
       </c>
-      <c r="B39" s="141" t="s">
+      <c r="B39" s="124" t="s">
         <v>172</v>
       </c>
-      <c r="C39" s="141" t="s">
+      <c r="C39" s="124" t="s">
         <v>171</v>
       </c>
-      <c r="D39" s="143" t="s">
+      <c r="D39" s="126" t="s">
         <v>67</v>
       </c>
-      <c r="E39" s="142"/>
-      <c r="F39" s="142"/>
-      <c r="G39" s="141" t="s">
+      <c r="E39" s="125"/>
+      <c r="F39" s="125"/>
+      <c r="G39" s="124" t="s">
         <v>171</v>
       </c>
-      <c r="H39" s="140"/>
+      <c r="H39" s="123"/>
     </row>
     <row r="40" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="144">
+      <c r="A40" s="127">
         <v>3</v>
       </c>
-      <c r="B40" s="141" t="s">
+      <c r="B40" s="124" t="s">
         <v>188</v>
       </c>
-      <c r="C40" s="141" t="s">
+      <c r="C40" s="124" t="s">
         <v>187</v>
       </c>
-      <c r="D40" s="143" t="s">
+      <c r="D40" s="126" t="s">
         <v>67</v>
       </c>
-      <c r="E40" s="143"/>
-      <c r="F40" s="142"/>
-      <c r="G40" s="141" t="s">
+      <c r="E40" s="126"/>
+      <c r="F40" s="125"/>
+      <c r="G40" s="124" t="s">
         <v>187</v>
       </c>
-      <c r="H40" s="140"/>
+      <c r="H40" s="123"/>
     </row>
     <row r="41" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="144">
+      <c r="A41" s="127">
         <v>4</v>
       </c>
-      <c r="B41" s="141" t="s">
+      <c r="B41" s="124" t="s">
         <v>168</v>
       </c>
-      <c r="C41" s="141" t="s">
+      <c r="C41" s="124" t="s">
         <v>186</v>
       </c>
-      <c r="D41" s="143"/>
-      <c r="E41" s="143" t="s">
+      <c r="D41" s="126"/>
+      <c r="E41" s="126" t="s">
         <v>68</v>
       </c>
-      <c r="F41" s="142"/>
-      <c r="G41" s="141" t="s">
+      <c r="F41" s="125"/>
+      <c r="G41" s="124" t="s">
         <v>185</v>
       </c>
-      <c r="H41" s="140">
+      <c r="H41" s="123">
         <v>4</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="139" t="s">
+      <c r="B42" s="122" t="s">
         <v>145</v>
       </c>
-      <c r="C42" s="139" t="s">
+      <c r="C42" s="122" t="s">
         <v>165</v>
       </c>
     </row>
@@ -40966,960 +40966,960 @@
     <row r="46" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="47" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="48" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="49" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="50" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="51" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="52" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="53" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="54" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="55" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="56" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="57" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="58" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="59" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="60" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="61" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="62" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="63" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="64" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="65" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="66" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="67" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="68" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="69" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="70" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="71" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="72" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="73" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="74" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="75" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="76" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="77" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="78" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="79" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="80" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="81" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="82" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="83" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="84" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="85" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="86" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="87" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="88" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="89" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="90" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="91" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="92" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="93" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="94" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="95" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="96" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="97" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="98" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="99" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="100" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="101" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="102" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="103" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="104" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="105" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="106" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="107" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="108" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="109" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="110" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="111" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="112" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="113" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="114" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="115" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="116" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="117" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="118" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="119" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="120" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="121" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="122" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="123" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="124" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="125" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="126" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="127" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="128" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="129" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="130" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="131" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="132" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="133" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="134" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="135" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="136" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="137" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="138" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="139" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="140" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="141" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="142" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="143" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="144" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="145" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="146" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="147" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="148" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="149" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="150" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="151" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="152" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="153" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="154" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="155" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="156" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="157" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="158" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="159" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="160" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="161" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="162" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="163" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="164" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="165" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="166" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="167" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="168" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="169" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="170" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="171" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="172" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="173" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="174" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="175" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="176" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="177" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="178" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="179" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="180" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="181" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="182" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="183" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="184" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="185" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="186" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="187" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="188" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="189" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="190" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="191" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="192" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="193" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="194" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="195" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="196" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="197" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="198" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="199" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="200" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="201" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="202" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="203" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="204" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="205" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="206" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="207" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="208" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="209" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="210" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="211" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="212" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="213" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="214" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="215" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="216" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="217" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="218" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="219" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="220" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="221" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="222" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="223" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="224" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="225" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="226" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="227" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="228" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="229" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="230" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="231" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="232" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="233" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="234" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="235" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="236" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="237" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="238" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="239" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="240" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="241" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="242" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="243" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="244" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="245" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="246" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="247" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="248" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="249" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="250" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="251" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="252" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="253" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="254" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="255" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="256" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="257" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="258" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="259" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="260" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="261" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="262" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="263" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="264" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="265" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="266" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="267" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="268" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="269" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="270" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="271" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="272" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="273" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="274" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="275" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="276" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="277" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="278" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="279" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="280" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="281" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="282" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="283" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="284" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="285" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="286" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="287" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="288" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="289" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="290" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="291" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="292" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="293" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="294" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="295" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="296" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="297" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="298" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="299" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="300" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="301" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="302" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="303" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="304" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="305" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="306" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="307" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="308" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="309" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="310" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="311" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="312" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="313" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="314" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="315" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="316" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="317" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="318" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="319" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="320" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="321" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="322" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="323" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="324" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="325" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="326" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="327" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="328" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="329" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="330" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="331" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="332" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="333" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="334" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="335" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="336" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="337" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="338" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="339" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="340" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="341" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="342" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="343" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="344" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="345" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="346" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="347" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="348" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="349" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="350" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="351" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="352" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="353" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="354" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="355" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="356" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="357" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="358" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="359" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="360" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="361" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="362" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="363" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="364" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="365" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="366" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="367" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="368" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="369" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="370" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="371" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="372" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="373" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="374" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="375" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="376" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="377" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="378" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="379" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="380" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="381" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="382" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="383" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="384" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="385" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="386" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="387" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="388" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="389" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="390" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="391" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="392" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="393" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="394" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="395" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="396" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="397" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="398" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="399" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="400" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="401" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="402" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="403" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="404" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="405" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="406" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="407" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="408" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="409" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="410" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="411" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="412" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="413" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="414" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="415" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="416" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="417" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="418" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="419" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="420" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="421" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="422" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="423" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="424" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="425" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="426" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="427" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="428" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="429" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="430" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="431" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="432" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="433" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="434" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="435" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="436" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="437" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="438" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="439" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="440" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="441" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="442" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="443" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="444" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="445" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="446" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="447" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="448" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="449" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="450" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="451" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="452" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="453" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="454" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="455" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="456" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="457" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="458" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="459" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="460" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="461" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="462" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="463" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="464" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="465" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="466" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="467" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="468" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="469" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="470" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="471" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="472" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="473" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="474" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="475" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="476" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="477" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="478" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="479" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="480" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="481" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="482" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="483" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="484" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="485" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="486" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="487" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="488" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="489" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="490" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="491" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="492" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="493" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="494" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="495" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="496" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="497" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="498" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="499" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="500" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="501" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="502" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="503" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="504" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="505" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="506" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="507" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="508" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="509" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="510" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="511" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="512" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="513" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="514" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="515" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="516" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="517" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="518" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="519" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="520" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="521" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="522" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="523" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="524" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="525" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="526" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="527" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="528" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="529" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="530" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="531" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="532" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="533" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="534" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="535" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="536" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="537" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="538" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="539" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="540" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="541" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="542" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="543" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="544" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="545" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="546" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="547" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="548" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="549" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="550" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="551" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="552" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="553" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="554" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="555" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="556" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="557" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="558" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="559" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="560" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="561" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="562" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="563" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="564" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="565" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="566" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="567" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="568" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="569" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="570" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="571" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="572" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="573" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="574" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="575" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="576" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="577" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="578" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="579" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="580" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="581" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="582" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="583" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="584" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="585" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="586" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="587" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="588" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="589" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="590" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="591" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="592" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="593" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="594" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="595" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="596" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="597" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="598" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="599" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="600" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="601" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="602" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="603" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="604" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="605" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="606" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="607" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="608" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="609" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="610" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="611" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="612" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="613" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="614" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="615" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="616" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="617" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="618" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="619" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="620" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="621" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="622" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="623" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="624" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="625" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="626" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="627" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="628" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="629" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="630" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="631" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="632" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="633" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="634" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="635" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="636" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="637" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="638" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="639" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="640" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="641" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="642" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="643" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="644" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="645" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="646" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="647" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="648" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="649" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="650" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="651" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="652" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="653" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="654" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="655" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="656" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="657" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="658" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="659" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="660" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="661" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="662" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="663" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="664" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="665" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="666" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="667" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="668" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="669" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="670" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="671" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="672" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="673" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="674" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="675" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="676" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="677" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="678" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="679" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="680" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="681" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="682" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="683" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="684" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="685" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="686" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="687" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="688" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="689" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="690" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="691" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="692" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="693" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="694" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="695" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="696" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="697" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="698" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="699" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="700" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="701" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="702" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="703" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="704" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="705" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="706" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="707" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="708" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="709" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="710" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="711" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="712" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="713" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="714" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="715" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="716" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="717" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="718" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="719" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="720" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="721" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="722" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="723" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="724" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="725" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="726" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="727" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="728" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="729" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="730" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="731" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="732" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="733" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="734" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="735" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="736" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="737" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="738" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="739" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="740" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="741" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="742" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="743" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="744" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="745" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="746" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="747" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="748" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="749" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="750" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="751" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="752" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="753" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="754" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="755" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="756" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="757" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="758" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="759" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="760" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="761" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="762" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="763" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="764" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="765" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="766" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="767" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="768" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="769" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="770" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="771" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="772" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="773" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="774" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="775" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="776" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="777" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="778" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="779" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="780" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="781" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="782" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="783" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="784" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="785" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="786" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="787" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="788" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="789" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="790" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="791" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="792" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="793" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="794" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="795" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="796" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="797" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="798" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="799" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="800" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="801" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="802" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="803" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="804" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="805" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="806" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="807" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="808" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="809" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="810" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="811" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="812" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="813" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="814" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="815" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="816" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="817" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="818" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="819" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="820" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="821" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="822" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="823" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="824" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="825" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="826" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="827" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="828" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="829" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="830" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="831" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="832" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="833" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="834" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="835" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="836" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="837" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="838" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="839" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="840" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="841" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="842" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="843" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="844" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="845" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="846" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="847" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="848" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="849" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="850" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="851" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="852" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="853" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="854" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="855" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="856" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="857" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="858" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="859" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="860" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="861" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="862" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="863" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="864" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="865" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="866" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="867" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="868" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="869" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="870" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="871" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="872" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="873" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="874" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="875" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="876" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="877" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="878" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="879" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="880" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="881" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="882" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="883" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="884" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="885" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="886" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="887" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="888" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="889" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="890" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="891" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="892" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="893" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="894" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="895" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="896" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="897" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="898" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="899" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="900" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="901" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="902" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="903" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="904" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="905" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="906" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="907" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="908" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="909" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="910" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="911" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="912" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="913" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="914" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="915" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="916" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="917" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="918" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="919" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="920" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="921" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="922" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="923" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="924" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="925" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="926" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="927" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="928" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="929" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="930" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="931" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="932" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="933" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="934" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="935" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="936" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="937" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="938" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="939" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="940" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="941" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="942" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="943" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="944" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="945" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="946" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="947" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="948" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="949" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="950" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="951" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="952" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="953" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="954" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="955" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="956" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="957" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="958" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="959" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="960" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="961" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="962" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="963" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="964" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="965" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="966" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="967" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="968" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="969" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="970" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="971" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="972" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="973" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="974" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="975" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="976" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="977" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="978" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="979" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="980" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="981" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="982" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="983" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="984" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="985" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="986" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="987" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="988" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="989" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="990" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="991" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="992" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="993" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="994" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="995" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="996" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="997" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="998" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="999" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1000" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1001" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1002" s="138" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="49" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="50" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="51" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="52" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="53" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="54" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="55" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="56" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="57" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="58" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="59" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="60" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="61" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="62" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="63" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="64" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="65" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="66" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="67" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="68" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="69" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="70" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="71" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="72" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="73" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="74" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="75" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="76" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="77" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="78" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="79" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="80" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="81" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="82" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="83" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="84" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="85" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="86" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="87" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="88" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="89" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="90" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="91" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="92" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="93" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="94" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="95" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="96" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="97" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="98" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="99" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="100" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="101" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="102" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="103" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="104" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="105" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="106" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="107" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="108" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="109" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="110" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="111" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="112" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="113" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="114" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="115" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="116" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="117" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="118" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="119" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="120" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="121" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="122" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="123" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="124" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="125" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="126" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="127" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="128" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="129" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="130" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="131" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="132" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="133" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="134" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="135" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="136" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="137" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="138" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="139" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="140" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="141" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="142" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="143" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="144" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="145" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="146" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="147" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="148" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="149" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="150" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="151" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="152" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="153" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="154" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="155" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="156" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="157" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="158" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="159" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="160" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="161" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="162" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="163" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="164" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="165" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="166" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="167" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="168" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="169" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="170" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="171" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="172" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="173" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="174" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="175" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="176" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="177" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="178" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="179" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="180" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="181" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="182" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="183" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="184" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="185" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="186" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="187" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="188" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="189" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="190" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="191" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="192" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="193" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="194" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="195" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="196" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="197" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="198" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="199" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="200" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="201" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="202" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="203" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="204" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="205" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="206" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="207" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="208" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="209" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="210" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="211" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="212" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="213" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="214" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="215" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="216" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="217" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="218" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="219" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="220" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="221" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="222" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="223" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="224" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="225" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="226" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="227" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="228" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="229" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="230" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="231" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="232" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="233" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="234" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="235" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="236" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="237" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="238" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="239" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="240" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="241" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="242" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="243" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="244" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="245" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="246" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="247" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="248" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="249" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="250" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="251" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="252" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="253" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="254" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="255" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="256" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="257" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="258" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="259" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="260" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="261" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="262" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="263" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="264" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="265" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="266" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="267" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="268" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="269" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="270" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="271" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="272" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="273" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="274" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="275" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="276" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="277" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="278" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="279" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="280" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="281" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="282" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="283" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="284" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="285" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="286" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="287" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="288" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="289" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="290" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="291" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="292" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="293" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="294" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="295" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="296" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="297" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="298" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="299" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="300" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="301" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="302" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="303" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="304" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="305" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="306" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="307" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="308" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="309" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="310" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="311" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="312" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="313" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="314" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="315" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="316" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="317" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="318" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="319" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="320" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="321" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="322" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="323" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="324" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="325" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="326" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="327" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="328" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="329" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="330" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="331" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="332" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="333" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="334" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="335" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="336" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="337" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="338" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="339" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="340" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="341" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="342" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="343" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="344" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="345" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="346" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="347" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="348" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="349" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="350" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="351" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="352" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="353" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="354" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="355" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="356" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="357" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="358" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="359" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="360" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="361" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="362" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="363" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="364" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="365" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="366" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="367" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="368" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="369" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="370" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="371" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="372" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="373" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="374" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="375" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="376" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="377" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="378" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="379" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="380" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="381" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="382" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="383" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="384" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="385" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="386" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="387" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="388" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="389" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="390" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="391" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="392" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="393" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="394" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="395" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="396" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="397" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="398" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="399" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="400" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="401" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="402" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="403" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="404" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="405" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="406" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="407" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="408" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="409" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="410" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="411" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="412" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="413" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="414" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="415" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="416" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="417" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="418" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="419" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="420" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="421" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="422" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="423" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="424" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="425" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="426" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="427" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="428" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="429" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="430" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="431" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="432" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="433" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="434" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="435" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="436" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="437" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="438" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="439" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="440" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="441" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="442" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="443" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="444" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="445" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="446" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="447" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="448" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="449" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="450" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="451" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="452" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="453" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="454" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="455" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="456" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="457" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="458" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="459" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="460" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="461" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="462" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="463" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="464" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="465" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="466" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="467" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="468" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="469" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="470" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="471" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="472" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="473" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="474" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="475" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="476" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="477" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="478" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="479" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="480" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="481" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="482" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="483" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="484" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="485" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="486" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="487" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="488" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="489" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="490" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="491" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="492" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="493" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="494" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="495" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="496" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="497" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="498" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="499" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="500" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="501" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="502" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="503" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="504" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="505" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="506" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="507" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="508" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="509" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="510" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="511" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="512" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="513" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="514" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="515" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="516" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="517" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="518" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="519" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="520" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="521" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="522" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="523" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="524" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="525" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="526" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="527" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="528" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="529" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="530" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="531" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="532" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="533" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="534" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="535" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="536" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="537" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="538" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="539" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="540" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="541" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="542" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="543" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="544" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="545" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="546" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="547" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="548" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="549" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="550" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="551" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="552" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="553" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="554" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="555" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="556" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="557" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="558" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="559" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="560" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="561" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="562" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="563" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="564" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="565" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="566" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="567" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="568" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="569" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="570" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="571" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="572" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="573" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="574" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="575" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="576" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="577" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="578" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="579" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="580" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="581" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="582" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="583" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="584" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="585" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="586" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="587" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="588" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="589" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="590" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="591" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="592" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="593" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="594" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="595" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="596" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="597" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="598" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="599" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="600" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="601" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="602" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="603" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="604" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="605" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="606" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="607" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="608" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="609" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="610" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="611" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="612" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="613" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="614" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="615" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="616" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="617" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="618" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="619" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="620" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="621" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="622" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="623" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="624" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="625" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="626" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="627" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="628" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="629" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="630" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="631" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="632" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="633" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="634" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="635" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="636" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="637" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="638" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="639" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="640" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="641" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="642" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="643" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="644" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="645" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="646" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="647" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="648" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="649" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="650" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="651" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="652" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="653" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="654" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="655" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="656" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="657" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="658" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="659" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="660" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="661" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="662" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="663" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="664" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="665" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="666" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="667" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="668" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="669" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="670" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="671" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="672" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="673" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="674" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="675" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="676" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="677" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="678" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="679" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="680" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="681" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="682" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="683" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="684" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="685" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="686" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="687" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="688" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="689" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="690" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="691" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="692" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="693" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="694" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="695" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="696" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="697" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="698" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="699" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="700" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="701" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="702" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="703" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="704" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="705" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="706" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="707" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="708" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="709" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="710" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="711" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="712" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="713" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="714" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="715" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="716" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="717" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="718" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="719" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="720" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="721" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="722" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="723" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="724" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="725" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="726" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="727" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="728" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="729" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="730" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="731" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="732" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="733" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="734" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="735" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="736" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="737" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="738" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="739" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="740" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="741" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="742" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="743" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="744" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="745" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="746" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="747" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="748" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="749" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="750" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="751" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="752" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="753" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="754" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="755" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="756" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="757" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="758" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="759" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="760" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="761" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="762" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="763" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="764" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="765" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="766" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="767" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="768" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="769" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="770" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="771" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="772" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="773" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="774" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="775" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="776" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="777" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="778" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="779" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="780" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="781" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="782" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="783" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="784" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="785" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="786" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="787" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="788" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="789" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="790" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="791" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="792" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="793" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="794" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="795" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="796" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="797" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="798" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="799" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="800" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="801" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="802" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="803" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="804" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="805" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="806" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="807" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="808" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="809" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="810" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="811" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="812" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="813" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="814" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="815" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="816" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="817" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="818" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="819" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="820" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="821" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="822" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="823" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="824" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="825" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="826" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="827" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="828" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="829" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="830" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="831" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="832" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="833" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="834" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="835" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="836" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="837" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="838" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="839" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="840" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="841" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="842" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="843" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="844" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="845" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="846" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="847" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="848" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="849" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="850" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="851" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="852" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="853" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="854" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="855" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="856" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="857" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="858" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="859" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="860" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="861" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="862" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="863" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="864" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="865" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="866" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="867" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="868" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="869" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="870" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="871" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="872" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="873" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="874" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="875" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="876" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="877" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="878" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="879" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="880" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="881" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="882" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="883" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="884" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="885" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="886" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="887" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="888" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="889" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="890" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="891" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="892" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="893" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="894" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="895" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="896" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="897" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="898" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="899" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="900" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="901" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="902" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="903" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="904" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="905" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="906" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="907" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="908" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="909" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="910" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="911" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="912" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="913" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="914" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="915" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="916" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="917" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="918" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="919" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="920" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="921" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="922" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="923" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="924" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="925" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="926" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="927" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="928" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="929" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="930" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="931" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="932" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="933" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="934" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="935" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="936" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="937" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="938" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="939" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="940" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="941" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="942" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="943" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="944" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="945" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="946" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="947" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="948" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="949" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="950" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="951" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="952" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="953" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="954" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="955" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="956" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="957" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="958" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="959" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="960" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="961" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="962" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="963" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="964" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="965" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="966" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="967" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="968" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="969" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="970" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="971" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="972" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="973" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="974" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="975" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="976" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="977" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="978" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="979" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="980" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="981" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="982" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="983" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="984" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="985" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="986" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="987" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="988" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="989" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="990" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="991" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="992" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="993" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="994" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="995" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="996" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="997" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="998" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="999" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1000" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1001" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1002" s="121" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="A26:A27"/>
@@ -41944,335 +41944,335 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="26" width="22.19921875" style="138" customWidth="1"/>
-    <col min="27" max="16384" width="12.59765625" style="138"/>
+    <col min="1" max="26" width="22.19921875" style="121" customWidth="1"/>
+    <col min="27" max="16384" width="12.59765625" style="121"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A1" s="190" t="s">
+      <c r="A1" s="164" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="198" t="s">
+      <c r="B1" s="201" t="s">
         <v>160</v>
       </c>
-      <c r="C1" s="197"/>
-      <c r="D1" s="196"/>
+      <c r="C1" s="202"/>
+      <c r="D1" s="203"/>
     </row>
     <row r="2" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A2" s="190" t="s">
+      <c r="A2" s="164" t="s">
         <v>66</v>
       </c>
-      <c r="B2" s="195">
+      <c r="B2" s="168">
         <v>3</v>
       </c>
-      <c r="C2" s="190" t="s">
+      <c r="C2" s="164" t="s">
         <v>70</v>
       </c>
-      <c r="D2" s="194">
+      <c r="D2" s="167">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A3" s="190" t="s">
+      <c r="A3" s="164" t="s">
         <v>71</v>
       </c>
-      <c r="B3" s="193" t="s">
+      <c r="B3" s="166" t="s">
         <v>158</v>
       </c>
-      <c r="C3" s="190" t="s">
+      <c r="C3" s="164" t="s">
         <v>72</v>
       </c>
-      <c r="D3" s="193" t="s">
+      <c r="D3" s="166" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A4" s="190" t="s">
+      <c r="A4" s="164" t="s">
         <v>73</v>
       </c>
-      <c r="B4" s="193" t="s">
+      <c r="B4" s="166" t="s">
         <v>85</v>
       </c>
-      <c r="C4" s="190" t="s">
+      <c r="C4" s="164" t="s">
         <v>75</v>
       </c>
-      <c r="D4" s="193">
+      <c r="D4" s="166">
         <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A5" s="190" t="s">
+      <c r="A5" s="164" t="s">
         <v>76</v>
       </c>
-      <c r="B5" s="193" t="s">
+      <c r="B5" s="166" t="s">
         <v>43</v>
       </c>
-      <c r="C5" s="190" t="s">
+      <c r="C5" s="164" t="s">
         <v>78</v>
       </c>
-      <c r="D5" s="193" t="s">
+      <c r="D5" s="166" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A6" s="141" t="s">
+      <c r="A6" s="124" t="s">
         <v>80</v>
       </c>
-      <c r="B6" s="141" t="s">
+      <c r="B6" s="124" t="s">
         <v>43</v>
       </c>
-      <c r="C6" s="193" t="s">
+      <c r="C6" s="166" t="s">
         <v>74</v>
       </c>
-      <c r="D6" s="193"/>
+      <c r="D6" s="166"/>
     </row>
     <row r="7" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A7" s="141" t="s">
+      <c r="A7" s="124" t="s">
         <v>42</v>
       </c>
-      <c r="B7" s="141" t="s">
+      <c r="B7" s="124" t="s">
         <v>81</v>
       </c>
-      <c r="C7" s="193" t="s">
+      <c r="C7" s="166" t="s">
         <v>82</v>
       </c>
-      <c r="D7" s="193"/>
+      <c r="D7" s="166"/>
     </row>
     <row r="8" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A8" s="141" t="s">
+      <c r="A8" s="124" t="s">
         <v>77</v>
       </c>
-      <c r="B8" s="141" t="s">
+      <c r="B8" s="124" t="s">
         <v>79</v>
       </c>
-      <c r="C8" s="193" t="s">
+      <c r="C8" s="166" t="s">
         <v>83</v>
       </c>
-      <c r="D8" s="193"/>
+      <c r="D8" s="166"/>
     </row>
     <row r="9" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A9" s="141" t="s">
+      <c r="A9" s="124" t="s">
         <v>35</v>
       </c>
-      <c r="B9" s="193"/>
-      <c r="C9" s="193" t="s">
+      <c r="B9" s="166"/>
+      <c r="C9" s="166" t="s">
         <v>84</v>
       </c>
-      <c r="D9" s="193"/>
+      <c r="D9" s="166"/>
     </row>
     <row r="10" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A10" s="141" t="s">
+      <c r="A10" s="124" t="s">
         <v>43</v>
       </c>
-      <c r="B10" s="193"/>
-      <c r="C10" s="193" t="s">
+      <c r="B10" s="166"/>
+      <c r="C10" s="166" t="s">
         <v>85</v>
       </c>
-      <c r="D10" s="193"/>
+      <c r="D10" s="166"/>
     </row>
     <row r="11" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A11" s="141" t="s">
+      <c r="A11" s="124" t="s">
         <v>34</v>
       </c>
-      <c r="B11" s="193"/>
-      <c r="C11" s="193"/>
-      <c r="D11" s="193"/>
+      <c r="B11" s="166"/>
+      <c r="C11" s="166"/>
+      <c r="D11" s="166"/>
     </row>
     <row r="12" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A12" s="190" t="s">
+      <c r="A12" s="164" t="s">
         <v>86</v>
       </c>
-      <c r="B12" s="193" t="s">
+      <c r="B12" s="166" t="s">
         <v>153</v>
       </c>
-      <c r="C12" s="190" t="s">
+      <c r="C12" s="164" t="s">
         <v>87</v>
       </c>
-      <c r="D12" s="193" t="s">
+      <c r="D12" s="166" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="188.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="192" t="s">
+      <c r="A13" s="165" t="s">
         <v>88</v>
       </c>
-      <c r="B13" s="191" t="s">
+      <c r="B13" s="204" t="s">
         <v>183</v>
       </c>
-      <c r="C13" s="188"/>
-      <c r="D13" s="187"/>
-      <c r="E13" s="186"/>
+      <c r="C13" s="205"/>
+      <c r="D13" s="206"/>
+      <c r="E13" s="163"/>
     </row>
     <row r="14" spans="1:5" ht="145.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="190" t="s">
+      <c r="A14" s="164" t="s">
         <v>89</v>
       </c>
-      <c r="B14" s="189"/>
-      <c r="C14" s="188"/>
-      <c r="D14" s="187"/>
-      <c r="E14" s="186"/>
+      <c r="B14" s="207"/>
+      <c r="C14" s="205"/>
+      <c r="D14" s="206"/>
+      <c r="E14" s="163"/>
     </row>
     <row r="19" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="190" t="s">
+      <c r="A19" s="164" t="s">
         <v>69</v>
       </c>
-      <c r="B19" s="198" t="s">
+      <c r="B19" s="201" t="s">
         <v>137</v>
       </c>
-      <c r="C19" s="197"/>
-      <c r="D19" s="196"/>
+      <c r="C19" s="202"/>
+      <c r="D19" s="203"/>
     </row>
     <row r="20" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="190" t="s">
+      <c r="A20" s="164" t="s">
         <v>66</v>
       </c>
-      <c r="B20" s="195">
+      <c r="B20" s="168">
         <v>4</v>
       </c>
-      <c r="C20" s="190" t="s">
+      <c r="C20" s="164" t="s">
         <v>70</v>
       </c>
-      <c r="D20" s="194">
+      <c r="D20" s="167">
         <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="190" t="s">
+      <c r="A21" s="164" t="s">
         <v>71</v>
       </c>
-      <c r="B21" s="193" t="s">
+      <c r="B21" s="166" t="s">
         <v>158</v>
       </c>
-      <c r="C21" s="190" t="s">
+      <c r="C21" s="164" t="s">
         <v>72</v>
       </c>
-      <c r="D21" s="193" t="s">
+      <c r="D21" s="166" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="190" t="s">
+      <c r="A22" s="164" t="s">
         <v>73</v>
       </c>
-      <c r="B22" s="193" t="s">
+      <c r="B22" s="166" t="s">
         <v>85</v>
       </c>
-      <c r="C22" s="190" t="s">
+      <c r="C22" s="164" t="s">
         <v>75</v>
       </c>
-      <c r="D22" s="193">
+      <c r="D22" s="166">
         <v>17</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="190" t="s">
+      <c r="A23" s="164" t="s">
         <v>76</v>
       </c>
-      <c r="B23" s="193" t="s">
+      <c r="B23" s="166" t="s">
         <v>77</v>
       </c>
-      <c r="C23" s="190" t="s">
+      <c r="C23" s="164" t="s">
         <v>78</v>
       </c>
-      <c r="D23" s="193" t="s">
+      <c r="D23" s="166" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="141" t="s">
+      <c r="A24" s="124" t="s">
         <v>80</v>
       </c>
-      <c r="B24" s="141" t="s">
+      <c r="B24" s="124" t="s">
         <v>43</v>
       </c>
-      <c r="C24" s="193" t="s">
+      <c r="C24" s="166" t="s">
         <v>74</v>
       </c>
-      <c r="D24" s="193"/>
+      <c r="D24" s="166"/>
     </row>
     <row r="25" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="141" t="s">
+      <c r="A25" s="124" t="s">
         <v>42</v>
       </c>
-      <c r="B25" s="141" t="s">
+      <c r="B25" s="124" t="s">
         <v>81</v>
       </c>
-      <c r="C25" s="193" t="s">
+      <c r="C25" s="166" t="s">
         <v>82</v>
       </c>
-      <c r="D25" s="193"/>
+      <c r="D25" s="166"/>
     </row>
     <row r="26" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="141" t="s">
+      <c r="A26" s="124" t="s">
         <v>77</v>
       </c>
-      <c r="B26" s="141" t="s">
+      <c r="B26" s="124" t="s">
         <v>79</v>
       </c>
-      <c r="C26" s="193" t="s">
+      <c r="C26" s="166" t="s">
         <v>83</v>
       </c>
-      <c r="D26" s="193"/>
+      <c r="D26" s="166"/>
     </row>
     <row r="27" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="141" t="s">
+      <c r="A27" s="124" t="s">
         <v>43</v>
       </c>
-      <c r="B27" s="141"/>
-      <c r="C27" s="193" t="s">
+      <c r="B27" s="124"/>
+      <c r="C27" s="166" t="s">
         <v>84</v>
       </c>
-      <c r="D27" s="193"/>
+      <c r="D27" s="166"/>
     </row>
     <row r="28" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="141" t="s">
+      <c r="A28" s="124" t="s">
         <v>35</v>
       </c>
-      <c r="B28" s="193"/>
-      <c r="C28" s="193" t="s">
+      <c r="B28" s="166"/>
+      <c r="C28" s="166" t="s">
         <v>85</v>
       </c>
-      <c r="D28" s="193"/>
+      <c r="D28" s="166"/>
     </row>
     <row r="29" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="141" t="s">
+      <c r="A29" s="124" t="s">
         <v>34</v>
       </c>
-      <c r="B29" s="193"/>
-      <c r="C29" s="193"/>
-      <c r="D29" s="193"/>
+      <c r="B29" s="166"/>
+      <c r="C29" s="166"/>
+      <c r="D29" s="166"/>
     </row>
     <row r="30" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="190" t="s">
+      <c r="A30" s="164" t="s">
         <v>86</v>
       </c>
-      <c r="B30" s="193" t="s">
+      <c r="B30" s="166" t="s">
         <v>175</v>
       </c>
-      <c r="C30" s="190" t="s">
+      <c r="C30" s="164" t="s">
         <v>87</v>
       </c>
-      <c r="D30" s="193" t="s">
+      <c r="D30" s="166" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="166.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="192" t="s">
+      <c r="A31" s="165" t="s">
         <v>88</v>
       </c>
-      <c r="B31" s="191" t="s">
+      <c r="B31" s="204" t="s">
         <v>190</v>
       </c>
-      <c r="C31" s="188"/>
-      <c r="D31" s="187"/>
+      <c r="C31" s="205"/>
+      <c r="D31" s="206"/>
     </row>
     <row r="32" spans="1:4" ht="160.80000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="190" t="s">
+      <c r="A32" s="164" t="s">
         <v>89</v>
       </c>
-      <c r="B32" s="189"/>
-      <c r="C32" s="188"/>
-      <c r="D32" s="187"/>
+      <c r="B32" s="207"/>
+      <c r="C32" s="205"/>
+      <c r="D32" s="206"/>
     </row>
     <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -43245,14 +43245,14 @@
     <row r="1001" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="B32:D32"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="B13:D13"/>
     <mergeCell ref="B14:D14"/>
     <mergeCell ref="B19:D19"/>
     <mergeCell ref="B31:D31"/>
-    <mergeCell ref="B32:D32"/>
   </mergeCells>
-  <dataValidations count="5">
+  <dataValidations count="4">
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="B4" xr:uid="{C5B40851-87F0-4732-89C9-765D86B1361E}">
       <formula1>$C$6:$C$11</formula1>
     </dataValidation>
@@ -43262,10 +43262,7 @@
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D5" xr:uid="{58D5045D-B2AE-4F77-AA27-9A407169EFF4}">
       <formula1>$B$6:$B$8</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D23" xr:uid="{5C6EDE75-31C9-4905-B149-B646815EF113}">
-      <formula1>#REF!</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="B22:B23" xr:uid="{9B6A8174-AB0D-4589-AA55-3ECD4E24A084}">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="D23 B22:B23" xr:uid="{5C6EDE75-31C9-4905-B149-B646815EF113}">
       <formula1>#REF!</formula1>
     </dataValidation>
   </dataValidations>
@@ -43294,261 +43291,261 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="123"/>
-      <c r="B1" s="105" t="s">
+      <c r="A1" s="111"/>
+      <c r="B1" s="99" t="s">
         <v>49</v>
       </c>
-      <c r="C1" s="202" t="s">
+      <c r="C1" s="172" t="s">
         <v>176</v>
       </c>
-      <c r="D1" s="107"/>
-      <c r="E1" s="106"/>
-      <c r="F1" s="105" t="s">
+      <c r="D1" s="101"/>
+      <c r="E1" s="100"/>
+      <c r="F1" s="99" t="s">
         <v>50</v>
       </c>
-      <c r="G1" s="122">
+      <c r="G1" s="110">
         <v>4</v>
       </c>
-      <c r="H1" s="103"/>
+      <c r="H1" s="97"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="121"/>
-      <c r="B2" s="120" t="s">
+      <c r="A2" s="182"/>
+      <c r="B2" s="184" t="s">
         <v>51</v>
       </c>
-      <c r="C2" s="119" t="s">
+      <c r="C2" s="186" t="s">
         <v>155</v>
       </c>
-      <c r="D2" s="114"/>
-      <c r="E2" s="113"/>
-      <c r="F2" s="112" t="s">
+      <c r="D2" s="108"/>
+      <c r="E2" s="107"/>
+      <c r="F2" s="106" t="s">
         <v>52</v>
       </c>
-      <c r="G2" s="118" t="s">
+      <c r="G2" s="109" t="s">
         <v>154</v>
       </c>
-      <c r="H2" s="110"/>
+      <c r="H2" s="104"/>
     </row>
     <row r="3" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="117"/>
-      <c r="B3" s="116"/>
-      <c r="C3" s="115"/>
-      <c r="D3" s="114"/>
-      <c r="E3" s="113"/>
-      <c r="F3" s="112" t="s">
+      <c r="A3" s="183"/>
+      <c r="B3" s="185"/>
+      <c r="C3" s="187"/>
+      <c r="D3" s="108"/>
+      <c r="E3" s="107"/>
+      <c r="F3" s="106" t="s">
         <v>53</v>
       </c>
-      <c r="G3" s="111">
+      <c r="G3" s="105">
         <v>4</v>
       </c>
-      <c r="H3" s="110"/>
+      <c r="H3" s="104"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="109"/>
-      <c r="B4" s="105" t="s">
+      <c r="A4" s="103"/>
+      <c r="B4" s="99" t="s">
         <v>54</v>
       </c>
-      <c r="C4" s="201" t="s">
+      <c r="C4" s="171" t="s">
         <v>175</v>
       </c>
-      <c r="D4" s="107"/>
-      <c r="E4" s="106"/>
-      <c r="F4" s="105" t="s">
+      <c r="D4" s="101"/>
+      <c r="E4" s="100"/>
+      <c r="F4" s="99" t="s">
         <v>55</v>
       </c>
-      <c r="G4" s="104">
+      <c r="G4" s="98">
         <v>44326</v>
       </c>
-      <c r="H4" s="103"/>
+      <c r="H4" s="97"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="100"/>
-      <c r="B5" s="97"/>
-      <c r="C5" s="97"/>
-      <c r="D5" s="99"/>
-      <c r="E5" s="99"/>
-      <c r="F5" s="99"/>
-      <c r="G5" s="97"/>
-      <c r="H5" s="97"/>
+      <c r="A5" s="94"/>
+      <c r="B5" s="91"/>
+      <c r="C5" s="91"/>
+      <c r="D5" s="93"/>
+      <c r="E5" s="93"/>
+      <c r="F5" s="93"/>
+      <c r="G5" s="91"/>
+      <c r="H5" s="91"/>
     </row>
     <row r="6" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A6" s="100"/>
-      <c r="B6" s="102"/>
-      <c r="C6" s="102"/>
-      <c r="D6" s="99"/>
-      <c r="E6" s="98"/>
-      <c r="F6" s="98"/>
-      <c r="G6" s="98"/>
-      <c r="H6" s="97"/>
+      <c r="A6" s="94"/>
+      <c r="B6" s="96"/>
+      <c r="C6" s="96"/>
+      <c r="D6" s="93"/>
+      <c r="E6" s="92"/>
+      <c r="F6" s="92"/>
+      <c r="G6" s="92"/>
+      <c r="H6" s="91"/>
     </row>
     <row r="7" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A7" s="100"/>
-      <c r="B7" s="102"/>
-      <c r="C7" s="97"/>
-      <c r="D7" s="101"/>
-      <c r="E7" s="98"/>
-      <c r="F7" s="98"/>
-      <c r="G7" s="98"/>
-      <c r="H7" s="97"/>
+      <c r="A7" s="94"/>
+      <c r="B7" s="96"/>
+      <c r="C7" s="91"/>
+      <c r="D7" s="95"/>
+      <c r="E7" s="92"/>
+      <c r="F7" s="92"/>
+      <c r="G7" s="92"/>
+      <c r="H7" s="91"/>
     </row>
     <row r="8" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A8" s="100"/>
-      <c r="B8" s="102"/>
-      <c r="C8" s="102"/>
-      <c r="D8" s="101"/>
-      <c r="E8" s="98"/>
-      <c r="F8" s="98"/>
-      <c r="G8" s="98"/>
-      <c r="H8" s="97"/>
+      <c r="A8" s="94"/>
+      <c r="B8" s="96"/>
+      <c r="C8" s="96"/>
+      <c r="D8" s="95"/>
+      <c r="E8" s="92"/>
+      <c r="F8" s="92"/>
+      <c r="G8" s="92"/>
+      <c r="H8" s="91"/>
     </row>
     <row r="9" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A9" s="100"/>
-      <c r="B9" s="102"/>
-      <c r="C9" s="102"/>
-      <c r="D9" s="101"/>
-      <c r="E9" s="98"/>
-      <c r="F9" s="98"/>
-      <c r="G9" s="98"/>
-      <c r="H9" s="97"/>
+      <c r="A9" s="94"/>
+      <c r="B9" s="96"/>
+      <c r="C9" s="96"/>
+      <c r="D9" s="95"/>
+      <c r="E9" s="92"/>
+      <c r="F9" s="92"/>
+      <c r="G9" s="92"/>
+      <c r="H9" s="91"/>
     </row>
     <row r="10" spans="1:8" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A10" s="100"/>
-      <c r="B10" s="97"/>
-      <c r="C10" s="97"/>
-      <c r="D10" s="99"/>
-      <c r="E10" s="98"/>
-      <c r="F10" s="75"/>
-      <c r="G10" s="98"/>
-      <c r="H10" s="97"/>
+      <c r="A10" s="94"/>
+      <c r="B10" s="91"/>
+      <c r="C10" s="91"/>
+      <c r="D10" s="93"/>
+      <c r="E10" s="92"/>
+      <c r="F10" s="69"/>
+      <c r="G10" s="92"/>
+      <c r="H10" s="91"/>
     </row>
     <row r="11" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="100"/>
-      <c r="B11" s="97"/>
-      <c r="C11" s="97"/>
-      <c r="D11" s="99"/>
-      <c r="E11" s="99"/>
-      <c r="F11" s="98"/>
-      <c r="G11" s="97"/>
-      <c r="H11" s="97"/>
+      <c r="A11" s="94"/>
+      <c r="B11" s="91"/>
+      <c r="C11" s="91"/>
+      <c r="D11" s="93"/>
+      <c r="E11" s="93"/>
+      <c r="F11" s="92"/>
+      <c r="G11" s="91"/>
+      <c r="H11" s="91"/>
     </row>
     <row r="12" spans="1:8" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="96">
+      <c r="A12" s="90">
         <f>COUNTA(A14:A28)</f>
         <v>3</v>
       </c>
-      <c r="B12" s="95" t="s">
+      <c r="B12" s="89" t="s">
         <v>56</v>
       </c>
-      <c r="C12" s="94" t="s">
+      <c r="C12" s="88" t="s">
         <v>57</v>
       </c>
-      <c r="D12" s="93">
+      <c r="D12" s="87">
         <f>COUNTIF(D14:D28,"x")</f>
         <v>2</v>
       </c>
-      <c r="E12" s="93">
+      <c r="E12" s="87">
         <f>1</f>
         <v>1</v>
       </c>
-      <c r="F12" s="93">
+      <c r="F12" s="87">
         <f>COUNTIF(F14:F28,"x")</f>
         <v>0</v>
       </c>
-      <c r="G12" s="92" t="s">
+      <c r="G12" s="86" t="s">
         <v>58</v>
       </c>
-      <c r="H12" s="91">
+      <c r="H12" s="85">
         <f>(D12+E12+F12)/A12</f>
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="26.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="90" t="s">
+      <c r="A13" s="84" t="s">
         <v>59</v>
       </c>
-      <c r="B13" s="89" t="s">
+      <c r="B13" s="83" t="s">
         <v>60</v>
       </c>
-      <c r="C13" s="89" t="s">
+      <c r="C13" s="83" t="s">
         <v>61</v>
       </c>
-      <c r="D13" s="88" t="s">
+      <c r="D13" s="82" t="s">
         <v>62</v>
       </c>
-      <c r="E13" s="88" t="s">
+      <c r="E13" s="82" t="s">
         <v>63</v>
       </c>
-      <c r="F13" s="88" t="s">
+      <c r="F13" s="82" t="s">
         <v>64</v>
       </c>
-      <c r="G13" s="87" t="s">
+      <c r="G13" s="81" t="s">
         <v>65</v>
       </c>
-      <c r="H13" s="86" t="s">
+      <c r="H13" s="80" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A14" s="85">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="79">
         <v>1</v>
       </c>
-      <c r="B14" s="84" t="s">
+      <c r="B14" s="78" t="s">
         <v>152</v>
       </c>
-      <c r="C14" s="84" t="s">
+      <c r="C14" s="78" t="s">
         <v>151</v>
       </c>
-      <c r="D14" s="80" t="s">
+      <c r="D14" s="74" t="s">
         <v>67</v>
       </c>
-      <c r="E14" s="80"/>
-      <c r="F14" s="80"/>
-      <c r="G14" s="84" t="s">
+      <c r="E14" s="74"/>
+      <c r="F14" s="74"/>
+      <c r="G14" s="78" t="s">
         <v>151</v>
       </c>
-      <c r="H14" s="83"/>
+      <c r="H14" s="77"/>
     </row>
     <row r="15" spans="1:8" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A15" s="82">
+      <c r="A15" s="76">
         <f>A14 + 1</f>
         <v>2</v>
       </c>
-      <c r="B15" s="200" t="s">
+      <c r="B15" s="170" t="s">
         <v>177</v>
       </c>
-      <c r="C15" s="200" t="s">
+      <c r="C15" s="170" t="s">
         <v>179</v>
       </c>
-      <c r="D15" s="206" t="s">
+      <c r="D15" s="175" t="s">
         <v>67</v>
       </c>
-      <c r="E15" s="204"/>
-      <c r="F15" s="79"/>
-      <c r="G15" s="200" t="s">
+      <c r="E15" s="173"/>
+      <c r="F15" s="73"/>
+      <c r="G15" s="170" t="s">
         <v>181</v>
       </c>
-      <c r="H15" s="77"/>
+      <c r="H15" s="71"/>
     </row>
     <row r="16" spans="1:8" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A16" s="82">
+      <c r="A16" s="76">
         <f>A15 + 1</f>
         <v>3</v>
       </c>
-      <c r="B16" s="200" t="s">
+      <c r="B16" s="170" t="s">
         <v>182</v>
       </c>
-      <c r="C16" s="200" t="s">
+      <c r="C16" s="170" t="s">
         <v>180</v>
       </c>
-      <c r="D16" s="80"/>
-      <c r="E16" s="204" t="s">
+      <c r="D16" s="74"/>
+      <c r="E16" s="173" t="s">
         <v>67</v>
       </c>
-      <c r="F16" s="79"/>
-      <c r="G16" s="200" t="s">
+      <c r="F16" s="73"/>
+      <c r="G16" s="170" t="s">
         <v>178</v>
       </c>
-      <c r="H16" s="77">
+      <c r="H16" s="71">
         <v>2</v>
       </c>
     </row>
@@ -43579,166 +43576,166 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A1" s="190" t="s">
+      <c r="A1" s="164" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="198" t="s">
+      <c r="B1" s="201" t="s">
         <v>162</v>
       </c>
-      <c r="C1" s="197"/>
-      <c r="D1" s="196"/>
+      <c r="C1" s="202"/>
+      <c r="D1" s="203"/>
     </row>
     <row r="2" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A2" s="190" t="s">
+      <c r="A2" s="164" t="s">
         <v>66</v>
       </c>
-      <c r="B2" s="195">
+      <c r="B2" s="168">
         <v>2</v>
       </c>
-      <c r="C2" s="190" t="s">
+      <c r="C2" s="164" t="s">
         <v>70</v>
       </c>
-      <c r="D2" s="194">
+      <c r="D2" s="167">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="190" t="s">
+      <c r="A3" s="164" t="s">
         <v>71</v>
       </c>
-      <c r="B3" s="193" t="s">
+      <c r="B3" s="166" t="s">
         <v>158</v>
       </c>
-      <c r="C3" s="190" t="s">
+      <c r="C3" s="164" t="s">
         <v>72</v>
       </c>
-      <c r="D3" s="205" t="s">
+      <c r="D3" s="174" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A4" s="190" t="s">
+      <c r="A4" s="164" t="s">
         <v>73</v>
       </c>
-      <c r="B4" s="193" t="s">
+      <c r="B4" s="166" t="s">
         <v>85</v>
       </c>
-      <c r="C4" s="190" t="s">
+      <c r="C4" s="164" t="s">
         <v>75</v>
       </c>
-      <c r="D4" s="193">
+      <c r="D4" s="166">
         <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A5" s="190" t="s">
+      <c r="A5" s="164" t="s">
         <v>76</v>
       </c>
-      <c r="B5" s="193" t="s">
+      <c r="B5" s="166" t="s">
         <v>77</v>
       </c>
-      <c r="C5" s="190" t="s">
+      <c r="C5" s="164" t="s">
         <v>78</v>
       </c>
-      <c r="D5" s="193" t="s">
+      <c r="D5" s="166" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A6" s="141" t="s">
+      <c r="A6" s="124" t="s">
         <v>80</v>
       </c>
-      <c r="B6" s="141" t="s">
+      <c r="B6" s="124" t="s">
         <v>43</v>
       </c>
-      <c r="C6" s="193" t="s">
+      <c r="C6" s="166" t="s">
         <v>74</v>
       </c>
-      <c r="D6" s="193"/>
+      <c r="D6" s="166"/>
     </row>
     <row r="7" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A7" s="141" t="s">
+      <c r="A7" s="124" t="s">
         <v>42</v>
       </c>
-      <c r="B7" s="141" t="s">
+      <c r="B7" s="124" t="s">
         <v>81</v>
       </c>
-      <c r="C7" s="193" t="s">
+      <c r="C7" s="166" t="s">
         <v>82</v>
       </c>
-      <c r="D7" s="193"/>
+      <c r="D7" s="166"/>
     </row>
     <row r="8" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A8" s="141" t="s">
+      <c r="A8" s="124" t="s">
         <v>77</v>
       </c>
-      <c r="B8" s="141" t="s">
+      <c r="B8" s="124" t="s">
         <v>79</v>
       </c>
-      <c r="C8" s="193" t="s">
+      <c r="C8" s="166" t="s">
         <v>83</v>
       </c>
-      <c r="D8" s="193"/>
+      <c r="D8" s="166"/>
     </row>
     <row r="9" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A9" s="141" t="s">
+      <c r="A9" s="124" t="s">
         <v>35</v>
       </c>
-      <c r="B9" s="193"/>
-      <c r="C9" s="193" t="s">
+      <c r="B9" s="166"/>
+      <c r="C9" s="166" t="s">
         <v>84</v>
       </c>
-      <c r="D9" s="193"/>
+      <c r="D9" s="166"/>
     </row>
     <row r="10" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A10" s="141" t="s">
+      <c r="A10" s="124" t="s">
         <v>43</v>
       </c>
-      <c r="B10" s="193"/>
-      <c r="C10" s="193" t="s">
+      <c r="B10" s="166"/>
+      <c r="C10" s="166" t="s">
         <v>85</v>
       </c>
-      <c r="D10" s="193"/>
+      <c r="D10" s="166"/>
     </row>
     <row r="11" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A11" s="141" t="s">
+      <c r="A11" s="124" t="s">
         <v>34</v>
       </c>
-      <c r="B11" s="193"/>
-      <c r="C11" s="193"/>
-      <c r="D11" s="193"/>
+      <c r="B11" s="166"/>
+      <c r="C11" s="166"/>
+      <c r="D11" s="166"/>
     </row>
     <row r="12" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A12" s="190" t="s">
+      <c r="A12" s="164" t="s">
         <v>86</v>
       </c>
-      <c r="B12" s="193" t="s">
+      <c r="B12" s="166" t="s">
         <v>173</v>
       </c>
-      <c r="C12" s="190" t="s">
+      <c r="C12" s="164" t="s">
         <v>87</v>
       </c>
-      <c r="D12" s="193" t="s">
+      <c r="D12" s="166" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="146.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="192" t="s">
+      <c r="A13" s="165" t="s">
         <v>88</v>
       </c>
-      <c r="B13" s="191" t="s">
+      <c r="B13" s="204" t="s">
         <v>184</v>
       </c>
-      <c r="C13" s="188"/>
-      <c r="D13" s="187"/>
+      <c r="C13" s="205"/>
+      <c r="D13" s="206"/>
     </row>
     <row r="14" spans="1:4" ht="143.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="190" t="s">
+      <c r="A14" s="164" t="s">
         <v>89</v>
       </c>
-      <c r="B14" s="189"/>
-      <c r="C14" s="188"/>
-      <c r="D14" s="187"/>
+      <c r="B14" s="207"/>
+      <c r="C14" s="205"/>
+      <c r="D14" s="206"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -43829,7 +43826,7 @@
       <c r="B9" s="8">
         <v>7</v>
       </c>
-      <c r="C9" s="136" t="s">
+      <c r="C9" s="119" t="s">
         <v>163</v>
       </c>
     </row>
@@ -43840,7 +43837,7 @@
       <c r="B10" s="8">
         <v>4</v>
       </c>
-      <c r="C10" s="136" t="s">
+      <c r="C10" s="119" t="s">
         <v>164</v>
       </c>
     </row>
@@ -43893,7 +43890,7 @@
       </c>
     </row>
     <row r="18" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="135" t="s">
+      <c r="A18" s="118" t="s">
         <v>159</v>
       </c>
       <c r="B18" s="56">
